--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="140">
   <si>
     <t>Profile</t>
   </si>
@@ -45,6 +45,393 @@
   </si>
   <si>
     <t>Method</t>
+  </si>
+  <si>
+    <t>RS-Observation-abrasion</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Abrasion</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>null#399963005</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1 (example)</t>
+  </si>
+  <si>
+    <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>RS-Observation-avulsion</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Avulsion</t>
+  </si>
+  <si>
+    <t>null#284554003</t>
+  </si>
+  <si>
+    <t>RS-Observation-blood-pressure</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Blood Pressure</t>
+  </si>
+  <si>
+    <t>null#85354-9</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>LOINC#8480-6</t>
+  </si>
+  <si>
+    <t>LOINC#8462-4</t>
+  </si>
+  <si>
+    <t>RS-Observation-body-temperature</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Body Temperature</t>
+  </si>
+  <si>
+    <t>null#8310-5</t>
+  </si>
+  <si>
+    <t>RS-Observation-burn-1st</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Burn 1st Degree</t>
+  </si>
+  <si>
+    <t>null#77140003</t>
+  </si>
+  <si>
+    <t>RS-Observation-burn-2nd</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Burn 2nd Degree</t>
+  </si>
+  <si>
+    <t>null#46541008</t>
+  </si>
+  <si>
+    <t>RS-Observation-burn-3rd</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Burn 3rd Degree</t>
+  </si>
+  <si>
+    <t>null#80247002</t>
+  </si>
+  <si>
+    <t>RS-Observation-burn-4th</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Burn 4th Degree</t>
+  </si>
+  <si>
+    <t>null#770400008</t>
+  </si>
+  <si>
+    <t>RS-Observation-call-source</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Call Source</t>
+  </si>
+  <si>
+    <t>null#397663001</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>RS-Observation-concussion</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Concussion</t>
+  </si>
+  <si>
+    <t>null#110030002</t>
+  </si>
+  <si>
+    <t>RS-Observation-contusion</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Contusion</t>
+  </si>
+  <si>
+    <t>null#125667009</t>
+  </si>
+  <si>
+    <t>RS-Observation-cyanosis</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Cyanosis</t>
+  </si>
+  <si>
+    <t>null#3415004</t>
+  </si>
+  <si>
+    <t>CodeableConcept</t>
+  </si>
+  <si>
+    <t>RS-Observation-date-received</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Date/Time Received by EMS</t>
+  </si>
+  <si>
+    <t>null#30976-5</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>RS-Observation-ec-bites-stings</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - External Cause: Bites/Stings</t>
+  </si>
+  <si>
+    <t>null#782162007</t>
+  </si>
+  <si>
+    <t>RS-Observation-ec-bites-stings-agent</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - External Cause: Bites/Stings Agent</t>
+  </si>
+  <si>
+    <t>null#95376-0</t>
+  </si>
+  <si>
+    <t>RS-Observation-ec-burns</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - External Cause: Burns</t>
+  </si>
+  <si>
+    <t>null#242490006</t>
+  </si>
+  <si>
+    <t>RS-Observation-ec-drowning</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - External Cause: Drowning</t>
+  </si>
+  <si>
+    <t>null#40947009</t>
+  </si>
+  <si>
+    <t>RS-Observation-fracture-closed</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Fracture (Closed)</t>
+  </si>
+  <si>
+    <t>null#423125000</t>
+  </si>
+  <si>
+    <t>RS-Observation-fracture-open</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Fracture (Open)</t>
+  </si>
+  <si>
+    <t>null#397181002</t>
+  </si>
+  <si>
+    <t>RS-Observation-gcs</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Glasgow Coma Scale</t>
+  </si>
+  <si>
+    <t>null#9269-2</t>
+  </si>
+  <si>
+    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
+  </si>
+  <si>
+    <t>LOINC#9267-6</t>
+  </si>
+  <si>
+    <t>LOINC#9270-0</t>
+  </si>
+  <si>
+    <t>LOINC#9268-4</t>
+  </si>
+  <si>
+    <t>RS-Observation-injury-datetime</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Date/Time of Injury</t>
+  </si>
+  <si>
+    <t>null#11368-8</t>
+  </si>
+  <si>
+    <t>RS-Observation-injury-intent</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Injury Intent</t>
+  </si>
+  <si>
+    <t>null#11375-3</t>
+  </si>
+  <si>
+    <t>RS-Observation-level-of-consciousness</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Level of Consciousness (AVPU)</t>
+  </si>
+  <si>
+    <t>null#67775-7</t>
+  </si>
+  <si>
+    <t>RS-Observation-mode-of-transport</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Mode of Transport to Facility</t>
+  </si>
+  <si>
+    <t>null#74286-6</t>
+  </si>
+  <si>
+    <t>RS-Observation-multiple-injuries</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Multiple Injuries?</t>
+  </si>
+  <si>
+    <t>null#262519004</t>
+  </si>
+  <si>
+    <t>RS-Observation-open-wound</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Open Wound</t>
+  </si>
+  <si>
+    <t>null#125643001</t>
+  </si>
+  <si>
+    <t>RS-Observation-other-injury</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Other Specified Injury</t>
+  </si>
+  <si>
+    <t>null#417163006</t>
+  </si>
+  <si>
+    <t>RS-Observation-pulse-rate</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Pulse Rate</t>
+  </si>
+  <si>
+    <t>null#8889-8</t>
+  </si>
+  <si>
+    <t>RS-Observation-pupils</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Pupils</t>
+  </si>
+  <si>
+    <t>null#113147002</t>
+  </si>
+  <si>
+    <t>RS-Observation-reported-complaint</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Reported Complaint</t>
+  </si>
+  <si>
+    <t>null#1269489004</t>
+  </si>
+  <si>
+    <t>RS-Observation-respiratory-rate</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Respiratory Rate</t>
+  </si>
+  <si>
+    <t>null#9279-1</t>
+  </si>
+  <si>
+    <t>RS-Observation-time-departed</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Time Departed Scene</t>
+  </si>
+  <si>
+    <t>null#69475-2</t>
+  </si>
+  <si>
+    <t>RS-Observation-time-enroute</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Time Enroute</t>
+  </si>
+  <si>
+    <t>null#69472-9</t>
+  </si>
+  <si>
+    <t>RS-Observation-time-hospital-arrival</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Time of Hospital Arrival</t>
+  </si>
+  <si>
+    <t>null#69476-0</t>
+  </si>
+  <si>
+    <t>RS-Observation-time-on-scene</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Time On Scene</t>
+  </si>
+  <si>
+    <t>null#69473-7</t>
+  </si>
+  <si>
+    <t>RS-Observation-time-station-arrival</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Time of Emergency Station Arrival</t>
+  </si>
+  <si>
+    <t>null#11288-8</t>
+  </si>
+  <si>
+    <t>RS-Observation-transport-vehicular-flag</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Transport/Vehicular Accident (flag)</t>
+  </si>
+  <si>
+    <t>null#274215009</t>
+  </si>
+  <si>
+    <t>RS-Observation-traumatic-amputation</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Traumatic Amputation</t>
+  </si>
+  <si>
+    <t>null#262595009</t>
   </si>
 </sst>
 </file>
@@ -178,7 +565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -219,6 +606,1511 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -47,7 +47,7 @@
     <t>Method</t>
   </si>
   <si>
-    <t>RS-Observation-abrasion</t>
+    <t>rs-observation-abrasion</t>
   </si>
   <si>
     <t>Road Safety Observation - Abrasion</t>
@@ -71,7 +71,7 @@
     <t>optional</t>
   </si>
   <si>
-    <t>RS-Observation-avulsion</t>
+    <t>rs-observation-avulsion</t>
   </si>
   <si>
     <t>Road Safety Observation - Avulsion</t>
@@ -80,7 +80,7 @@
     <t>null#284554003</t>
   </si>
   <si>
-    <t>RS-Observation-blood-pressure</t>
+    <t>rs-observation-blood-pressure</t>
   </si>
   <si>
     <t>Road Safety Observation - Blood Pressure</t>
@@ -98,7 +98,7 @@
     <t>LOINC#8462-4</t>
   </si>
   <si>
-    <t>RS-Observation-body-temperature</t>
+    <t>rs-observation-body-temperature</t>
   </si>
   <si>
     <t>Road Safety Observation - Body Temperature</t>
@@ -107,7 +107,7 @@
     <t>null#8310-5</t>
   </si>
   <si>
-    <t>RS-Observation-burn-1st</t>
+    <t>rs-observation-burn-1st</t>
   </si>
   <si>
     <t>Road Safety Observation - Burn 1st Degree</t>
@@ -116,7 +116,7 @@
     <t>null#77140003</t>
   </si>
   <si>
-    <t>RS-Observation-burn-2nd</t>
+    <t>rs-observation-burn-2nd</t>
   </si>
   <si>
     <t>Road Safety Observation - Burn 2nd Degree</t>
@@ -125,7 +125,7 @@
     <t>null#46541008</t>
   </si>
   <si>
-    <t>RS-Observation-burn-3rd</t>
+    <t>rs-observation-burn-3rd</t>
   </si>
   <si>
     <t>Road Safety Observation - Burn 3rd Degree</t>
@@ -134,7 +134,7 @@
     <t>null#80247002</t>
   </si>
   <si>
-    <t>RS-Observation-burn-4th</t>
+    <t>rs-observation-burn-4th</t>
   </si>
   <si>
     <t>Road Safety Observation - Burn 4th Degree</t>
@@ -143,7 +143,7 @@
     <t>null#770400008</t>
   </si>
   <si>
-    <t>RS-Observation-call-source</t>
+    <t>rs-observation-call-source</t>
   </si>
   <si>
     <t>Road Safety Observation - Call Source</t>
@@ -155,7 +155,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>RS-Observation-concussion</t>
+    <t>rs-observation-concussion</t>
   </si>
   <si>
     <t>Road Safety Observation - Concussion</t>
@@ -164,7 +164,7 @@
     <t>null#110030002</t>
   </si>
   <si>
-    <t>RS-Observation-contusion</t>
+    <t>rs-observation-contusion</t>
   </si>
   <si>
     <t>Road Safety Observation - Contusion</t>
@@ -173,7 +173,7 @@
     <t>null#125667009</t>
   </si>
   <si>
-    <t>RS-Observation-cyanosis</t>
+    <t>rs-observation-cyanosis</t>
   </si>
   <si>
     <t>Road Safety Observation - Cyanosis</t>
@@ -185,7 +185,7 @@
     <t>CodeableConcept</t>
   </si>
   <si>
-    <t>RS-Observation-date-received</t>
+    <t>rs-observation-date-received</t>
   </si>
   <si>
     <t>Road Safety Observation - Date/Time Received by EMS</t>
@@ -197,7 +197,7 @@
     <t>dateTime</t>
   </si>
   <si>
-    <t>RS-Observation-ec-bites-stings</t>
+    <t>rs-observation-ec-bites-stings</t>
   </si>
   <si>
     <t>Road Safety Observation - External Cause: Bites/Stings</t>
@@ -206,7 +206,7 @@
     <t>null#782162007</t>
   </si>
   <si>
-    <t>RS-Observation-ec-bites-stings-agent</t>
+    <t>rs-observation-ec-bites-stings-agent</t>
   </si>
   <si>
     <t>Road Safety Observation - External Cause: Bites/Stings Agent</t>
@@ -215,7 +215,7 @@
     <t>null#95376-0</t>
   </si>
   <si>
-    <t>RS-Observation-ec-burns</t>
+    <t>rs-observation-ec-burns</t>
   </si>
   <si>
     <t>Road Safety Observation - External Cause: Burns</t>
@@ -224,7 +224,7 @@
     <t>null#242490006</t>
   </si>
   <si>
-    <t>RS-Observation-ec-drowning</t>
+    <t>rs-observation-ec-drowning</t>
   </si>
   <si>
     <t>Road Safety Observation - External Cause: Drowning</t>
@@ -233,7 +233,7 @@
     <t>null#40947009</t>
   </si>
   <si>
-    <t>RS-Observation-fracture-closed</t>
+    <t>rs-observation-fracture-closed</t>
   </si>
   <si>
     <t>Road Safety Observation - Fracture (Closed)</t>
@@ -242,7 +242,7 @@
     <t>null#423125000</t>
   </si>
   <si>
-    <t>RS-Observation-fracture-open</t>
+    <t>rs-observation-fracture-open</t>
   </si>
   <si>
     <t>Road Safety Observation - Fracture (Open)</t>
@@ -251,7 +251,7 @@
     <t>null#397181002</t>
   </si>
   <si>
-    <t>RS-Observation-gcs</t>
+    <t>rs-observation-gcs</t>
   </si>
   <si>
     <t>Road Safety Observation - Glasgow Coma Scale</t>
@@ -272,7 +272,7 @@
     <t>LOINC#9268-4</t>
   </si>
   <si>
-    <t>RS-Observation-injury-datetime</t>
+    <t>rs-observation-injury-datetime</t>
   </si>
   <si>
     <t>Road Safety Observation - Date/Time of Injury</t>
@@ -281,7 +281,7 @@
     <t>null#11368-8</t>
   </si>
   <si>
-    <t>RS-Observation-injury-intent</t>
+    <t>rs-observation-injury-intent</t>
   </si>
   <si>
     <t>Road Safety Observation - Injury Intent</t>
@@ -290,7 +290,7 @@
     <t>null#11375-3</t>
   </si>
   <si>
-    <t>RS-Observation-level-of-consciousness</t>
+    <t>rs-observation-level-of-consciousness</t>
   </si>
   <si>
     <t>Road Safety Observation - Level of Consciousness (AVPU)</t>
@@ -299,7 +299,7 @@
     <t>null#67775-7</t>
   </si>
   <si>
-    <t>RS-Observation-mode-of-transport</t>
+    <t>rs-observation-mode-of-transport</t>
   </si>
   <si>
     <t>Road Safety Observation - Mode of Transport to Facility</t>
@@ -308,7 +308,7 @@
     <t>null#74286-6</t>
   </si>
   <si>
-    <t>RS-Observation-multiple-injuries</t>
+    <t>rs-observation-multiple-injuries</t>
   </si>
   <si>
     <t>Road Safety Observation - Multiple Injuries?</t>
@@ -317,7 +317,7 @@
     <t>null#262519004</t>
   </si>
   <si>
-    <t>RS-Observation-open-wound</t>
+    <t>rs-observation-open-wound</t>
   </si>
   <si>
     <t>Road Safety Observation - Open Wound</t>
@@ -326,7 +326,7 @@
     <t>null#125643001</t>
   </si>
   <si>
-    <t>RS-Observation-other-injury</t>
+    <t>rs-observation-other-injury</t>
   </si>
   <si>
     <t>Road Safety Observation - Other Specified Injury</t>
@@ -335,7 +335,7 @@
     <t>null#417163006</t>
   </si>
   <si>
-    <t>RS-Observation-pulse-rate</t>
+    <t>rs-observation-pulse-rate</t>
   </si>
   <si>
     <t>Road Safety Observation - Pulse Rate</t>
@@ -344,7 +344,7 @@
     <t>null#8889-8</t>
   </si>
   <si>
-    <t>RS-Observation-pupils</t>
+    <t>rs-observation-pupils</t>
   </si>
   <si>
     <t>Road Safety Observation - Pupils</t>
@@ -353,7 +353,7 @@
     <t>null#113147002</t>
   </si>
   <si>
-    <t>RS-Observation-reported-complaint</t>
+    <t>rs-observation-reported-complaint</t>
   </si>
   <si>
     <t>Road Safety Observation - Reported Complaint</t>
@@ -362,7 +362,7 @@
     <t>null#1269489004</t>
   </si>
   <si>
-    <t>RS-Observation-respiratory-rate</t>
+    <t>rs-observation-respiratory-rate</t>
   </si>
   <si>
     <t>Road Safety Observation - Respiratory Rate</t>
@@ -371,7 +371,7 @@
     <t>null#9279-1</t>
   </si>
   <si>
-    <t>RS-Observation-time-departed</t>
+    <t>rs-observation-time-departed</t>
   </si>
   <si>
     <t>Road Safety Observation - Time Departed Scene</t>
@@ -380,7 +380,7 @@
     <t>null#69475-2</t>
   </si>
   <si>
-    <t>RS-Observation-time-enroute</t>
+    <t>rs-observation-time-enroute</t>
   </si>
   <si>
     <t>Road Safety Observation - Time Enroute</t>
@@ -389,7 +389,7 @@
     <t>null#69472-9</t>
   </si>
   <si>
-    <t>RS-Observation-time-hospital-arrival</t>
+    <t>rs-observation-time-hospital-arrival</t>
   </si>
   <si>
     <t>Road Safety Observation - Time of Hospital Arrival</t>
@@ -398,7 +398,7 @@
     <t>null#69476-0</t>
   </si>
   <si>
-    <t>RS-Observation-time-on-scene</t>
+    <t>rs-observation-time-on-scene</t>
   </si>
   <si>
     <t>Road Safety Observation - Time On Scene</t>
@@ -407,7 +407,7 @@
     <t>null#69473-7</t>
   </si>
   <si>
-    <t>RS-Observation-time-station-arrival</t>
+    <t>rs-observation-time-station-arrival</t>
   </si>
   <si>
     <t>Road Safety Observation - Time of Emergency Station Arrival</t>
@@ -416,7 +416,7 @@
     <t>null#11288-8</t>
   </si>
   <si>
-    <t>RS-Observation-transport-vehicular-flag</t>
+    <t>rs-observation-transport-vehicular-flag</t>
   </si>
   <si>
     <t>Road Safety Observation - Transport/Vehicular Accident (flag)</t>
@@ -425,7 +425,7 @@
     <t>null#274215009</t>
   </si>
   <si>
-    <t>RS-Observation-traumatic-amputation</t>
+    <t>rs-observation-traumatic-amputation</t>
   </si>
   <si>
     <t>Road Safety Observation - Traumatic Amputation</t>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="221">
   <si>
     <t>Profile</t>
   </si>
@@ -71,6 +71,18 @@
     <t>optional</t>
   </si>
   <si>
+    <t>rs-observation-activity-at-incident</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Activity at Time of Incident</t>
+  </si>
+  <si>
+    <t>null#activity-at-incident</t>
+  </si>
+  <si>
+    <t>CodeableConcept</t>
+  </si>
+  <si>
     <t>rs-observation-avulsion</t>
   </si>
   <si>
@@ -155,6 +167,24 @@
     <t>string</t>
   </si>
   <si>
+    <t>rs-observation-collision-type</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Collision Type</t>
+  </si>
+  <si>
+    <t>null#collision-type</t>
+  </si>
+  <si>
+    <t>rs-observation-collision-vs-noncollision</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Collision vs Non-Collision</t>
+  </si>
+  <si>
+    <t>null#collision-category</t>
+  </si>
+  <si>
     <t>rs-observation-concussion</t>
   </si>
   <si>
@@ -182,9 +212,6 @@
     <t>null#3415004</t>
   </si>
   <si>
-    <t>CodeableConcept</t>
-  </si>
-  <si>
     <t>rs-observation-date-received</t>
   </si>
   <si>
@@ -206,13 +233,10 @@
     <t>null#782162007</t>
   </si>
   <si>
-    <t>rs-observation-ec-bites-stings-agent</t>
-  </si>
-  <si>
-    <t>Road Safety Observation - External Cause: Bites/Stings Agent</t>
-  </si>
-  <si>
-    <t>null#95376-0</t>
+    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
+  </si>
+  <si>
+    <t>LOINC#95376-0</t>
   </si>
   <si>
     <t>rs-observation-ec-burns</t>
@@ -224,6 +248,24 @@
     <t>null#242490006</t>
   </si>
   <si>
+    <t>SNOMED CT#burns-agent</t>
+  </si>
+  <si>
+    <t>SNOMED CT#burns-other</t>
+  </si>
+  <si>
+    <t>rs-observation-ec-chemical</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - External Cause: Chemical/Substance</t>
+  </si>
+  <si>
+    <t>null#chemical-event</t>
+  </si>
+  <si>
+    <t>SNOMED CT#chemical-agent</t>
+  </si>
+  <si>
     <t>rs-observation-ec-drowning</t>
   </si>
   <si>
@@ -233,6 +275,108 @@
     <t>null#40947009</t>
   </si>
   <si>
+    <t>SNOMED CT#drowning-type</t>
+  </si>
+  <si>
+    <t>SNOMED CT#drowning-other</t>
+  </si>
+  <si>
+    <t>rs-observation-ec-fall</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - External Cause: Fall</t>
+  </si>
+  <si>
+    <t>null#fall-event</t>
+  </si>
+  <si>
+    <t>SNOMED CT#fall-specifics</t>
+  </si>
+  <si>
+    <t>rs-observation-ec-firecracker</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - External Cause: Firecracker</t>
+  </si>
+  <si>
+    <t>null#firecracker-event</t>
+  </si>
+  <si>
+    <t>SNOMED CT#firecracker-type</t>
+  </si>
+  <si>
+    <t>rs-observation-ec-forces-of-nature</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - External Cause: Exposure to Forces of Nature</t>
+  </si>
+  <si>
+    <t>null#forces-of-nature-event</t>
+  </si>
+  <si>
+    <t>rs-observation-ec-gunshot</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - External Cause: Gunshot</t>
+  </si>
+  <si>
+    <t>null#gunshot-event</t>
+  </si>
+  <si>
+    <t>SNOMED CT#gunshot-weapon</t>
+  </si>
+  <si>
+    <t>rs-observation-ec-hanging-strangulation</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - External Cause: Hanging/Strangulation</t>
+  </si>
+  <si>
+    <t>null#hanging-strangulation-event</t>
+  </si>
+  <si>
+    <t>rs-observation-ec-mauling-assault</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - External Cause: Mauling/Assault</t>
+  </si>
+  <si>
+    <t>null#mauling-assault-event</t>
+  </si>
+  <si>
+    <t>rs-observation-ec-other</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - External Cause: Other</t>
+  </si>
+  <si>
+    <t>null#other-external-cause-event</t>
+  </si>
+  <si>
+    <t>SNOMED CT#other-external-cause-specify</t>
+  </si>
+  <si>
+    <t>rs-observation-ec-sexual-assault</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - External Cause: Sexual Assault/Abuse/Rape (Alleged)</t>
+  </si>
+  <si>
+    <t>null#sexual-assault-event</t>
+  </si>
+  <si>
+    <t>rs-observation-ec-sharp-object</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - External Cause: Contact with Sharp Object</t>
+  </si>
+  <si>
+    <t>null#sharp-object-event</t>
+  </si>
+  <si>
+    <t>SNOMED CT#sharp-object-specify</t>
+  </si>
+  <si>
     <t>rs-observation-fracture-closed</t>
   </si>
   <si>
@@ -260,9 +404,6 @@
     <t>null#9269-2</t>
   </si>
   <si>
-    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
-  </si>
-  <si>
     <t>LOINC#9267-6</t>
   </si>
   <si>
@@ -272,6 +413,27 @@
     <t>LOINC#9268-4</t>
   </si>
   <si>
+    <t>rs-observation-how-many-patients</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - How Many Patients Involved</t>
+  </si>
+  <si>
+    <t>null#how-many-patients</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>rs-observation-how-many-vehicles</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - How Many Vehicles Involved</t>
+  </si>
+  <si>
+    <t>null#how-many-vehicles</t>
+  </si>
+  <si>
     <t>rs-observation-injury-datetime</t>
   </si>
   <si>
@@ -335,6 +497,51 @@
     <t>null#417163006</t>
   </si>
   <si>
+    <t>rs-observation-other-risk-factors</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Other Risk Factors</t>
+  </si>
+  <si>
+    <t>null#other-risk-factors</t>
+  </si>
+  <si>
+    <t>rs-observation-other-vehicle</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Other Vehicle/Object Involved</t>
+  </si>
+  <si>
+    <t>null#other-vehicle-involved</t>
+  </si>
+  <si>
+    <t>rs-observation-patients-vehicle</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Patient's Vehicle</t>
+  </si>
+  <si>
+    <t>null#patients-vehicle</t>
+  </si>
+  <si>
+    <t>rs-observation-place-of-occurrence</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Place of Occurrence</t>
+  </si>
+  <si>
+    <t>null#place-of-occurrence</t>
+  </si>
+  <si>
+    <t>rs-observation-position-of-patient</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Position of Patient</t>
+  </si>
+  <si>
+    <t>null#position-of-patient</t>
+  </si>
+  <si>
     <t>rs-observation-pulse-rate</t>
   </si>
   <si>
@@ -371,6 +578,15 @@
     <t>null#9279-1</t>
   </si>
   <si>
+    <t>rs-observation-safety-accessories</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Safety Accessories</t>
+  </si>
+  <si>
+    <t>null#safety-accessories</t>
+  </si>
+  <si>
     <t>rs-observation-time-departed</t>
   </si>
   <si>
@@ -416,6 +632,15 @@
     <t>null#11288-8</t>
   </si>
   <si>
+    <t>rs-observation-traffic-investigator</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Presence of Traffic Investigator</t>
+  </si>
+  <si>
+    <t>null#traffic-investigator-presence</t>
+  </si>
+  <si>
     <t>rs-observation-transport-vehicular-flag</t>
   </si>
   <si>
@@ -432,6 +657,24 @@
   </si>
   <si>
     <t>null#262595009</t>
+  </si>
+  <si>
+    <t>rs-observation-triage-priority</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Triage Priority</t>
+  </si>
+  <si>
+    <t>null#triage-priority</t>
+  </si>
+  <si>
+    <t>rs-observation-urgency</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Priority Level (Urgency)</t>
+  </si>
+  <si>
+    <t>null#urgency-level</t>
   </si>
 </sst>
 </file>
@@ -565,7 +808,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -664,7 +907,7 @@
         <v>16</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>18</v>
@@ -678,10 +921,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>13</v>
@@ -690,7 +933,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>15</v>
@@ -699,7 +942,7 @@
         <v>16</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>18</v>
@@ -713,10 +956,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>13</v>
@@ -725,16 +968,16 @@
         <v>13</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>18</v>
@@ -743,7 +986,7 @@
         <v>13</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -751,7 +994,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>13</v>
@@ -769,7 +1012,7 @@
         <v>13</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>18</v>
@@ -778,34 +1021,34 @@
         <v>13</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C7" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>25</v>
-      </c>
       <c r="I7" t="s" s="2">
         <v>18</v>
       </c>
@@ -813,15 +1056,15 @@
         <v>13</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>13</v>
@@ -830,7 +1073,7 @@
         <v>13</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>15</v>
@@ -839,7 +1082,7 @@
         <v>16</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>18</v>
@@ -853,10 +1096,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>13</v>
@@ -865,7 +1108,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>15</v>
@@ -888,10 +1131,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>13</v>
@@ -900,7 +1143,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>15</v>
@@ -923,10 +1166,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>13</v>
@@ -935,7 +1178,7 @@
         <v>13</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>15</v>
@@ -958,10 +1201,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>13</v>
@@ -970,7 +1213,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>15</v>
@@ -979,7 +1222,7 @@
         <v>16</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>18</v>
@@ -1014,7 +1257,7 @@
         <v>16</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>18</v>
@@ -1028,10 +1271,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>13</v>
@@ -1040,7 +1283,7 @@
         <v>13</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>15</v>
@@ -1049,7 +1292,7 @@
         <v>16</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>18</v>
@@ -1063,10 +1306,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>13</v>
@@ -1075,7 +1318,7 @@
         <v>13</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>15</v>
@@ -1084,7 +1327,7 @@
         <v>16</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>18</v>
@@ -1119,7 +1362,7 @@
         <v>16</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>18</v>
@@ -1133,19 +1376,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="C17" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s" s="2">
         <v>62</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E17" t="s" s="2">
-        <v>63</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>15</v>
@@ -1168,20 +1411,20 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="C18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="C18" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E18" t="s" s="2">
-        <v>66</v>
-      </c>
       <c r="F18" t="s" s="2">
         <v>15</v>
       </c>
@@ -1189,7 +1432,7 @@
         <v>16</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>18</v>
@@ -1203,28 +1446,28 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="C19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="C19" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E19" t="s" s="2">
+      <c r="F19" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s" s="2">
         <v>69</v>
-      </c>
-      <c r="F19" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>17</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>18</v>
@@ -1273,54 +1516,54 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="I21" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>74</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D21" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F21" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="C22" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E22" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>15</v>
@@ -1343,10 +1586,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>13</v>
@@ -1355,16 +1598,16 @@
         <v>13</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>18</v>
@@ -1373,7 +1616,7 @@
         <v>13</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
@@ -1381,7 +1624,7 @@
         <v>13</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>13</v>
@@ -1399,7 +1642,7 @@
         <v>13</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>18</v>
@@ -1408,15 +1651,15 @@
         <v>13</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>13</v>
@@ -1425,16 +1668,16 @@
         <v>13</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>18</v>
@@ -1443,7 +1686,7 @@
         <v>13</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
@@ -1451,7 +1694,7 @@
         <v>13</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>13</v>
@@ -1469,7 +1712,7 @@
         <v>13</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>18</v>
@@ -1478,25 +1721,25 @@
         <v>13</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="B27" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D27" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E27" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="F27" t="s" s="2">
         <v>15</v>
       </c>
@@ -1504,7 +1747,7 @@
         <v>16</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>18</v>
@@ -1518,10 +1761,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>13</v>
@@ -1530,16 +1773,16 @@
         <v>13</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>18</v>
@@ -1548,15 +1791,15 @@
         <v>13</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>13</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>13</v>
@@ -1565,16 +1808,16 @@
         <v>13</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>18</v>
@@ -1583,15 +1826,15 @@
         <v>13</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>13</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>13</v>
@@ -1600,7 +1843,7 @@
         <v>13</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>15</v>
@@ -1609,7 +1852,7 @@
         <v>16</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>18</v>
@@ -1623,10 +1866,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>13</v>
@@ -1635,16 +1878,16 @@
         <v>13</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>18</v>
@@ -1653,15 +1896,15 @@
         <v>13</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>13</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>13</v>
@@ -1670,7 +1913,7 @@
         <v>13</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>15</v>
@@ -1693,10 +1936,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>13</v>
@@ -1705,16 +1948,16 @@
         <v>13</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>18</v>
@@ -1723,15 +1966,15 @@
         <v>13</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>13</v>
@@ -1740,7 +1983,7 @@
         <v>13</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>15</v>
@@ -1749,7 +1992,7 @@
         <v>16</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>18</v>
@@ -1763,10 +2006,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>13</v>
@@ -1775,7 +2018,7 @@
         <v>13</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>15</v>
@@ -1784,7 +2027,7 @@
         <v>16</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>18</v>
@@ -1798,10 +2041,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>13</v>
@@ -1810,16 +2053,16 @@
         <v>13</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>18</v>
@@ -1828,15 +2071,15 @@
         <v>13</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>13</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>13</v>
@@ -1845,7 +2088,7 @@
         <v>13</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>15</v>
@@ -1854,7 +2097,7 @@
         <v>16</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>18</v>
@@ -1868,10 +2111,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>13</v>
@@ -1880,7 +2123,7 @@
         <v>13</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>15</v>
@@ -1889,7 +2132,7 @@
         <v>16</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>18</v>
@@ -1903,10 +2146,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>13</v>
@@ -1915,7 +2158,7 @@
         <v>13</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>15</v>
@@ -1924,7 +2167,7 @@
         <v>16</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>18</v>
@@ -1938,10 +2181,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>13</v>
@@ -1950,16 +2193,16 @@
         <v>13</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>18</v>
@@ -1968,15 +2211,15 @@
         <v>13</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>13</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>13</v>
@@ -1985,7 +2228,7 @@
         <v>13</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>15</v>
@@ -1994,7 +2237,7 @@
         <v>16</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>18</v>
@@ -2008,10 +2251,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>13</v>
@@ -2020,7 +2263,7 @@
         <v>13</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>15</v>
@@ -2029,7 +2272,7 @@
         <v>16</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>18</v>
@@ -2043,10 +2286,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>13</v>
@@ -2055,16 +2298,16 @@
         <v>13</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>18</v>
@@ -2073,15 +2316,15 @@
         <v>13</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>13</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>13</v>
@@ -2090,7 +2333,7 @@
         <v>13</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>15</v>
@@ -2108,6 +2351,1196 @@
         <v>13</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D52" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D53" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E56" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E57" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D58" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E58" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D59" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E59" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E60" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E62" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E63" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E64" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D65" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E65" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D66" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E66" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D67" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E67" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E68" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D69" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E69" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E70" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D71" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E71" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D72" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E72" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D73" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E73" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D74" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E74" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D75" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E75" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D76" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E76" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D77" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E77" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D78" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E78" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K78" t="s" s="2">
         <v>13</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="266">
   <si>
     <t>Profile</t>
   </si>
@@ -92,6 +92,18 @@
     <t>null#284554003</t>
   </si>
   <si>
+    <t>rs-observation-blood-alcohol</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Blood Alcohol Concentration</t>
+  </si>
+  <si>
+    <t>null#56425-3</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
     <t>rs-observation-blood-pressure</t>
   </si>
   <si>
@@ -101,9 +113,6 @@
     <t>null#85354-9</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>LOINC#8480-6</t>
   </si>
   <si>
@@ -119,6 +128,15 @@
     <t>null#8310-5</t>
   </si>
   <si>
+    <t>rs-observation-breath-sounds</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Breath Sounds</t>
+  </si>
+  <si>
+    <t>null#breath-sounds</t>
+  </si>
+  <si>
     <t>rs-observation-burn-1st</t>
   </si>
   <si>
@@ -167,6 +185,24 @@
     <t>string</t>
   </si>
   <si>
+    <t>rs-observation-cctv-available</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - CCTV Available</t>
+  </si>
+  <si>
+    <t>null#cctv-available</t>
+  </si>
+  <si>
+    <t>rs-observation-clinical-remarks</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Clinical Remarks</t>
+  </si>
+  <si>
+    <t>null#clinical-remarks</t>
+  </si>
+  <si>
     <t>rs-observation-collision-type</t>
   </si>
   <si>
@@ -194,6 +230,15 @@
     <t>null#110030002</t>
   </si>
   <si>
+    <t>rs-observation-condition-of-patient</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Condition of Patient</t>
+  </si>
+  <si>
+    <t>null#condition-of-patient</t>
+  </si>
+  <si>
     <t>rs-observation-contusion</t>
   </si>
   <si>
@@ -515,6 +560,24 @@
     <t>null#other-vehicle-involved</t>
   </si>
   <si>
+    <t>rs-observation-outcome-discharge</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Outcome at Discharge</t>
+  </si>
+  <si>
+    <t>null#outcome-at-discharge</t>
+  </si>
+  <si>
+    <t>rs-observation-outcome-release</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Outcome at Release</t>
+  </si>
+  <si>
+    <t>null#outcome-at-release</t>
+  </si>
+  <si>
     <t>rs-observation-patients-vehicle</t>
   </si>
   <si>
@@ -542,6 +605,15 @@
     <t>null#position-of-patient</t>
   </si>
   <si>
+    <t>rs-observation-pulse-quality</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Pulse Quality</t>
+  </si>
+  <si>
+    <t>null#pulse-quality</t>
+  </si>
+  <si>
     <t>rs-observation-pulse-rate</t>
   </si>
   <si>
@@ -551,6 +623,15 @@
     <t>null#8889-8</t>
   </si>
   <si>
+    <t>rs-observation-pulse-rhythm</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Pulse Rhythm</t>
+  </si>
+  <si>
+    <t>null#pulse-rhythm</t>
+  </si>
+  <si>
     <t>rs-observation-pupils</t>
   </si>
   <si>
@@ -578,6 +659,24 @@
     <t>null#9279-1</t>
   </si>
   <si>
+    <t>rs-observation-respiratory-rhythm</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Respiratory Rhythm</t>
+  </si>
+  <si>
+    <t>null#respiratory-rhythm</t>
+  </si>
+  <si>
+    <t>rs-observation-runreport-comments</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Run Report Comments</t>
+  </si>
+  <si>
+    <t>null#runreport-comments</t>
+  </si>
+  <si>
     <t>rs-observation-safety-accessories</t>
   </si>
   <si>
@@ -587,6 +686,24 @@
     <t>null#safety-accessories</t>
   </si>
   <si>
+    <t>rs-observation-status-on-arrival</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Status on Arrival</t>
+  </si>
+  <si>
+    <t>null#status-on-arrival</t>
+  </si>
+  <si>
+    <t>rs-observation-status-on-arrival-alive</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - If Alive: Conscious/Unconscious</t>
+  </si>
+  <si>
+    <t>null#status-on-arrival-alive</t>
+  </si>
+  <si>
     <t>rs-observation-time-departed</t>
   </si>
   <si>
@@ -675,6 +792,24 @@
   </si>
   <si>
     <t>null#urgency-level</t>
+  </si>
+  <si>
+    <t>rs-observation-vehicle-condition</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Vehicle Condition</t>
+  </si>
+  <si>
+    <t>null#vehicle-condition</t>
+  </si>
+  <si>
+    <t>rs-observation-vehicle-used</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Vehicle Used</t>
+  </si>
+  <si>
+    <t>null#vehicle-used</t>
   </si>
 </sst>
 </file>
@@ -808,7 +943,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -977,7 +1112,7 @@
         <v>16</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>18</v>
@@ -991,10 +1126,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>13</v>
@@ -1003,16 +1138,16 @@
         <v>13</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>18</v>
@@ -1021,7 +1156,7 @@
         <v>13</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -1029,7 +1164,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>13</v>
@@ -1056,15 +1191,15 @@
         <v>13</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>13</v>
@@ -1073,13 +1208,13 @@
         <v>13</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>29</v>
@@ -1091,7 +1226,7 @@
         <v>13</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -1117,7 +1252,7 @@
         <v>16</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>18</v>
@@ -1152,7 +1287,7 @@
         <v>16</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>18</v>
@@ -1257,7 +1392,7 @@
         <v>16</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>18</v>
@@ -1271,20 +1406,20 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="C14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="C14" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="F14" t="s" s="2">
         <v>15</v>
       </c>
@@ -1292,7 +1427,7 @@
         <v>16</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>18</v>
@@ -1306,28 +1441,28 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="C15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s" s="2">
+      <c r="F15" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="F15" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>22</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>18</v>
@@ -1397,7 +1532,7 @@
         <v>16</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>18</v>
@@ -1467,7 +1602,7 @@
         <v>16</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>18</v>
@@ -1481,19 +1616,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="C20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E20" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>15</v>
@@ -1516,10 +1651,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>13</v>
@@ -1528,16 +1663,16 @@
         <v>13</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>18</v>
@@ -1546,7 +1681,7 @@
         <v>13</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>74</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -1586,10 +1721,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>13</v>
@@ -1598,16 +1733,16 @@
         <v>13</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>18</v>
@@ -1616,15 +1751,15 @@
         <v>13</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>13</v>
@@ -1633,16 +1768,16 @@
         <v>13</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>18</v>
@@ -1651,15 +1786,15 @@
         <v>13</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>79</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>13</v>
@@ -1668,7 +1803,7 @@
         <v>13</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>15</v>
@@ -1694,7 +1829,7 @@
         <v>13</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>13</v>
@@ -1712,7 +1847,7 @@
         <v>13</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>18</v>
@@ -1721,15 +1856,15 @@
         <v>13</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>13</v>
@@ -1738,7 +1873,7 @@
         <v>13</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>15</v>
@@ -1764,7 +1899,7 @@
         <v>13</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>13</v>
@@ -1782,7 +1917,7 @@
         <v>13</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>18</v>
@@ -1791,7 +1926,7 @@
         <v>13</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29">
@@ -1799,7 +1934,7 @@
         <v>13</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>13</v>
@@ -1817,7 +1952,7 @@
         <v>13</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>18</v>
@@ -1826,15 +1961,15 @@
         <v>13</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>13</v>
@@ -1843,7 +1978,7 @@
         <v>13</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>15</v>
@@ -1869,7 +2004,7 @@
         <v>13</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>13</v>
@@ -1887,7 +2022,7 @@
         <v>13</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>18</v>
@@ -1896,15 +2031,15 @@
         <v>13</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>13</v>
@@ -1913,7 +2048,7 @@
         <v>13</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>15</v>
@@ -1939,7 +2074,7 @@
         <v>13</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>13</v>
@@ -1957,7 +2092,7 @@
         <v>13</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>18</v>
@@ -1966,15 +2101,15 @@
         <v>13</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>13</v>
@@ -1983,16 +2118,16 @@
         <v>13</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>18</v>
@@ -2001,15 +2136,15 @@
         <v>13</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>13</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>13</v>
@@ -2018,7 +2153,7 @@
         <v>13</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>15</v>
@@ -2044,7 +2179,7 @@
         <v>13</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>13</v>
@@ -2062,7 +2197,7 @@
         <v>13</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>18</v>
@@ -2071,15 +2206,15 @@
         <v>13</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>13</v>
@@ -2088,7 +2223,7 @@
         <v>13</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>15</v>
@@ -2111,10 +2246,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>13</v>
@@ -2123,16 +2258,16 @@
         <v>13</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>18</v>
@@ -2141,15 +2276,15 @@
         <v>13</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>13</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>13</v>
@@ -2158,7 +2293,7 @@
         <v>13</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>15</v>
@@ -2181,10 +2316,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>13</v>
@@ -2193,16 +2328,16 @@
         <v>13</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>18</v>
@@ -2211,15 +2346,15 @@
         <v>13</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>113</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>13</v>
@@ -2228,16 +2363,16 @@
         <v>13</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>18</v>
@@ -2246,15 +2381,15 @@
         <v>13</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>13</v>
@@ -2263,7 +2398,7 @@
         <v>13</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>15</v>
@@ -2286,10 +2421,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>13</v>
@@ -2298,16 +2433,16 @@
         <v>13</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>18</v>
@@ -2316,15 +2451,15 @@
         <v>13</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>120</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>13</v>
@@ -2333,7 +2468,7 @@
         <v>13</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>15</v>
@@ -2356,10 +2491,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>13</v>
@@ -2368,16 +2503,16 @@
         <v>13</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>18</v>
@@ -2386,15 +2521,15 @@
         <v>13</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>13</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>13</v>
@@ -2403,7 +2538,7 @@
         <v>13</v>
       </c>
       <c r="E46" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>15</v>
@@ -2412,7 +2547,7 @@
         <v>16</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>18</v>
@@ -2426,10 +2561,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>13</v>
@@ -2438,16 +2573,16 @@
         <v>13</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>18</v>
@@ -2456,7 +2591,7 @@
         <v>13</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>130</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48">
@@ -2464,7 +2599,7 @@
         <v>13</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>13</v>
@@ -2482,7 +2617,7 @@
         <v>13</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>18</v>
@@ -2491,15 +2626,15 @@
         <v>13</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>13</v>
@@ -2508,16 +2643,16 @@
         <v>13</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>18</v>
@@ -2526,15 +2661,15 @@
         <v>13</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>132</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>13</v>
@@ -2543,7 +2678,7 @@
         <v>13</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>15</v>
@@ -2552,7 +2687,7 @@
         <v>16</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>18</v>
@@ -2566,10 +2701,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>13</v>
@@ -2578,7 +2713,7 @@
         <v>13</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>15</v>
@@ -2587,7 +2722,7 @@
         <v>16</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>18</v>
@@ -2601,10 +2736,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>13</v>
@@ -2613,16 +2748,16 @@
         <v>13</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>18</v>
@@ -2631,16 +2766,16 @@
         <v>13</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>13</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="B53" t="s" s="2">
-        <v>144</v>
-      </c>
       <c r="C53" t="s" s="2">
         <v>13</v>
       </c>
@@ -2648,16 +2783,16 @@
         <v>13</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>18</v>
@@ -2666,68 +2801,68 @@
         <v>13</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>13</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="B54" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D54" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E54" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>13</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="B55" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="C55" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="C55" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D55" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E55" t="s" s="2">
+      <c r="F55" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H55" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>22</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>18</v>
@@ -2762,7 +2897,7 @@
         <v>16</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>18</v>
@@ -2797,7 +2932,7 @@
         <v>16</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>18</v>
@@ -2832,7 +2967,7 @@
         <v>16</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>18</v>
@@ -2937,7 +3072,7 @@
         <v>16</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>18</v>
@@ -2972,7 +3107,7 @@
         <v>16</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>18</v>
@@ -3007,7 +3142,7 @@
         <v>16</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>18</v>
@@ -3042,7 +3177,7 @@
         <v>16</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>18</v>
@@ -3112,7 +3247,7 @@
         <v>16</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>18</v>
@@ -3147,7 +3282,7 @@
         <v>16</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>18</v>
@@ -3217,7 +3352,7 @@
         <v>16</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>18</v>
@@ -3252,7 +3387,7 @@
         <v>16</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>18</v>
@@ -3287,7 +3422,7 @@
         <v>16</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>18</v>
@@ -3322,7 +3457,7 @@
         <v>16</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>18</v>
@@ -3357,7 +3492,7 @@
         <v>16</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>18</v>
@@ -3392,7 +3527,7 @@
         <v>16</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>18</v>
@@ -3427,7 +3562,7 @@
         <v>16</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>18</v>
@@ -3462,7 +3597,7 @@
         <v>16</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>18</v>
@@ -3532,15 +3667,540 @@
         <v>16</v>
       </c>
       <c r="H78" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D79" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E79" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H79" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="I78" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K78" t="s" s="2">
+      <c r="I79" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D80" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E80" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D81" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E81" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D82" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E82" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D83" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E83" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D84" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E84" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D85" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E85" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D86" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E86" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D87" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E87" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D88" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E88" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D89" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E89" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D90" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E90" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D91" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E91" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D92" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E92" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D93" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E93" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K93" t="s" s="2">
         <v>13</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="275">
   <si>
     <t>Profile</t>
   </si>
@@ -422,6 +422,15 @@
     <t>SNOMED CT#sharp-object-specify</t>
   </si>
   <si>
+    <t>rs-observation-extent-of-injury</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Extent of Injury</t>
+  </si>
+  <si>
+    <t>null#extent-of-injury</t>
+  </si>
+  <si>
     <t>rs-observation-fracture-closed</t>
   </si>
   <si>
@@ -641,6 +650,15 @@
     <t>null#113147002</t>
   </si>
   <si>
+    <t>rs-observation-referred-by-facility</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Referred By Facility</t>
+  </si>
+  <si>
+    <t>null#LA6624-6</t>
+  </si>
+  <si>
     <t>rs-observation-reported-complaint</t>
   </si>
   <si>
@@ -756,6 +774,15 @@
   </si>
   <si>
     <t>null#traffic-investigator-presence</t>
+  </si>
+  <si>
+    <t>rs-observation-transferred-from-facility</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Transferred From Facility</t>
+  </si>
+  <si>
+    <t>null#77305-1</t>
   </si>
   <si>
     <t>rs-observation-transport-vehicular-flag</t>
@@ -943,7 +970,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2652,7 +2679,7 @@
         <v>16</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>18</v>
@@ -2722,7 +2749,7 @@
         <v>16</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>18</v>
@@ -2736,10 +2763,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>13</v>
@@ -2748,13 +2775,13 @@
         <v>13</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>88</v>
@@ -2766,7 +2793,7 @@
         <v>13</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>145</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53">
@@ -2774,7 +2801,7 @@
         <v>13</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>13</v>
@@ -2801,7 +2828,7 @@
         <v>13</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54">
@@ -2809,7 +2836,7 @@
         <v>13</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>13</v>
@@ -2836,15 +2863,15 @@
         <v>13</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>13</v>
@@ -2853,51 +2880,51 @@
         <v>13</v>
       </c>
       <c r="E55" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>13</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="B56" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="C56" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E56" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="C56" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D56" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E56" t="s" s="2">
+      <c r="F56" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H56" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>18</v>
@@ -2932,7 +2959,7 @@
         <v>16</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>18</v>
@@ -2967,7 +2994,7 @@
         <v>16</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>18</v>
@@ -3072,7 +3099,7 @@
         <v>16</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>18</v>
@@ -3177,7 +3204,7 @@
         <v>16</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>18</v>
@@ -3457,7 +3484,7 @@
         <v>16</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>18</v>
@@ -3492,7 +3519,7 @@
         <v>16</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>18</v>
@@ -3562,7 +3589,7 @@
         <v>16</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>18</v>
@@ -3597,7 +3624,7 @@
         <v>16</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>18</v>
@@ -3632,7 +3659,7 @@
         <v>16</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>18</v>
@@ -3667,7 +3694,7 @@
         <v>16</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>18</v>
@@ -3737,7 +3764,7 @@
         <v>16</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>18</v>
@@ -3807,7 +3834,7 @@
         <v>16</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>18</v>
@@ -3842,7 +3869,7 @@
         <v>16</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>18</v>
@@ -3982,7 +4009,7 @@
         <v>16</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>18</v>
@@ -4017,7 +4044,7 @@
         <v>16</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>18</v>
@@ -4087,7 +4114,7 @@
         <v>16</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>18</v>
@@ -4122,7 +4149,7 @@
         <v>16</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>18</v>
@@ -4157,7 +4184,7 @@
         <v>16</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>18</v>
@@ -4201,6 +4228,111 @@
         <v>13</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D94" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E94" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D95" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E95" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D96" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E96" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K96" t="s" s="2">
         <v>13</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="252">
   <si>
     <t>Profile</t>
   </si>
@@ -45,6 +45,729 @@
   </si>
   <si>
     <t>Method</t>
+  </si>
+  <si>
+    <t>rs-observation-abrasion</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Abrasion</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>null#399963005</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1 (example)</t>
+  </si>
+  <si>
+    <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
+  </si>
+  <si>
+    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>rs-observation-activity-at-incident</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Activity at Time of Incident</t>
+  </si>
+  <si>
+    <t>null#11372-0</t>
+  </si>
+  <si>
+    <t>CodeableConcept</t>
+  </si>
+  <si>
+    <t>rs-observation-avulsion</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Avulsion</t>
+  </si>
+  <si>
+    <t>null#284554003</t>
+  </si>
+  <si>
+    <t>rs-observation-blood-alcohol</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Blood Alcohol Concentration</t>
+  </si>
+  <si>
+    <t>null#167009006</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>rs-observation-blood-pressure</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Blood Pressure</t>
+  </si>
+  <si>
+    <t>null#85354-9</t>
+  </si>
+  <si>
+    <t>rs-observation-body-temperature</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Body Temperature</t>
+  </si>
+  <si>
+    <t>null#386725007</t>
+  </si>
+  <si>
+    <t>rs-observation-breath-sounds</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Breath Sounds</t>
+  </si>
+  <si>
+    <t>null#52653008</t>
+  </si>
+  <si>
+    <t>rs-observation-call-source</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Call Source</t>
+  </si>
+  <si>
+    <t>null#397663001</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>rs-observation-cctv-available</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - CCTV Available</t>
+  </si>
+  <si>
+    <t>null#360000005</t>
+  </si>
+  <si>
+    <t>rs-observation-clinical-remarks</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Clinical Remarks</t>
+  </si>
+  <si>
+    <t>null#clinical-remarks</t>
+  </si>
+  <si>
+    <t>rs-observation-collision-type</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Collision Type</t>
+  </si>
+  <si>
+    <t>null#collision-type</t>
+  </si>
+  <si>
+    <t>rs-observation-collision-vs-noncollision</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Collision vs Non-Collision</t>
+  </si>
+  <si>
+    <t>null#collision-category</t>
+  </si>
+  <si>
+    <t>rs-observation-concussion</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Concussion</t>
+  </si>
+  <si>
+    <t>null#110030002</t>
+  </si>
+  <si>
+    <t>rs-observation-condition-of-patient</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Condition of Patient</t>
+  </si>
+  <si>
+    <t>null#12386002</t>
+  </si>
+  <si>
+    <t>rs-observation-contusion</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Contusion</t>
+  </si>
+  <si>
+    <t>null#125667009</t>
+  </si>
+  <si>
+    <t>rs-observation-cyanosis</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Cyanosis</t>
+  </si>
+  <si>
+    <t>null#3415004</t>
+  </si>
+  <si>
+    <t>rs-observation-date-of-consultation</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Date of Consultation</t>
+  </si>
+  <si>
+    <t>null#406543005</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>rs-observation-date-of-injury</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Date of Injury</t>
+  </si>
+  <si>
+    <t>null#439771001</t>
+  </si>
+  <si>
+    <t>rs-observation-date-received</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Date/Time Received by EMS</t>
+  </si>
+  <si>
+    <t>null#30976-5</t>
+  </si>
+  <si>
+    <t>rs-observation-ec-bites-stings</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - External Cause: Bites/Stings</t>
+  </si>
+  <si>
+    <t>null#242651001</t>
+  </si>
+  <si>
+    <t>rs-observation-ec-burns</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - External Cause: Burns</t>
+  </si>
+  <si>
+    <t>null#242490006</t>
+  </si>
+  <si>
+    <t>rs-observation-ec-chemical</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - External Cause: Chemical/Substance</t>
+  </si>
+  <si>
+    <t>null#133261000119105</t>
+  </si>
+  <si>
+    <t>rs-observation-ec-drowning</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - External Cause: Drowning</t>
+  </si>
+  <si>
+    <t>null#40947009</t>
+  </si>
+  <si>
+    <t>rs-observation-ec-fall</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - External Cause: Fall</t>
+  </si>
+  <si>
+    <t>null#1912002</t>
+  </si>
+  <si>
+    <t>rs-observation-ec-firecracker</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - External Cause: Firecracker</t>
+  </si>
+  <si>
+    <t>null#218100007</t>
+  </si>
+  <si>
+    <t>rs-observation-ec-forces-of-nature</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - External Cause: Exposure to Forces of Nature</t>
+  </si>
+  <si>
+    <t>null#276746005</t>
+  </si>
+  <si>
+    <t>rs-observation-ec-gunshot</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - External Cause: Gunshot</t>
+  </si>
+  <si>
+    <t>null#63409001</t>
+  </si>
+  <si>
+    <t>rs-observation-ec-hanging-strangulation</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - External Cause: Hanging/Strangulation</t>
+  </si>
+  <si>
+    <t>null#212976008</t>
+  </si>
+  <si>
+    <t>rs-observation-ec-mauling-assault</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - External Cause: Mauling/Assault</t>
+  </si>
+  <si>
+    <t>null#52684005</t>
+  </si>
+  <si>
+    <t>rs-observation-ec-other</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - External Cause: Other</t>
+  </si>
+  <si>
+    <t>null#773760007</t>
+  </si>
+  <si>
+    <t>rs-observation-ec-sexual-assault</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - External Cause: Sexual Assault/Abuse/Rape (Alleged)</t>
+  </si>
+  <si>
+    <t>null#248110007</t>
+  </si>
+  <si>
+    <t>rs-observation-ec-sharp-object</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - External Cause: Contact with Sharp Object</t>
+  </si>
+  <si>
+    <t>null#69129000</t>
+  </si>
+  <si>
+    <t>rs-observation-extent-of-injury</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Extent of Injury</t>
+  </si>
+  <si>
+    <t>null#1255875007</t>
+  </si>
+  <si>
+    <t>rs-observation-fracture</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Fracture</t>
+  </si>
+  <si>
+    <t>null#125605004</t>
+  </si>
+  <si>
+    <t>rs-observation-gcs</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Glasgow Coma Scale</t>
+  </si>
+  <si>
+    <t>null#248241002</t>
+  </si>
+  <si>
+    <t>rs-observation-how-many-patients</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - How Many Patients Involved</t>
+  </si>
+  <si>
+    <t>null#how-many-patients</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>rs-observation-how-many-vehicles</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - How Many Vehicles Involved</t>
+  </si>
+  <si>
+    <t>null#how-many-vehicles</t>
+  </si>
+  <si>
+    <t>rs-observation-injury-datetime</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Date/Time of Injury</t>
+  </si>
+  <si>
+    <t>null#11368-8</t>
+  </si>
+  <si>
+    <t>rs-observation-level-of-consciousness</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Level of Consciousness (AVPU)</t>
+  </si>
+  <si>
+    <t>null#449159002</t>
+  </si>
+  <si>
+    <t>rs-observation-mode-of-transport</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Mode of Transport to Facility</t>
+  </si>
+  <si>
+    <t>null#74286-6</t>
+  </si>
+  <si>
+    <t>rs-observation-multiple-injuries</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Multiple Injuries?</t>
+  </si>
+  <si>
+    <t>null#262519004</t>
+  </si>
+  <si>
+    <t>rs-observation-nature-burns</t>
+  </si>
+  <si>
+    <t>null#125666000</t>
+  </si>
+  <si>
+    <t>rs-observation-open-wound</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Open Wound</t>
+  </si>
+  <si>
+    <t>null#125643001</t>
+  </si>
+  <si>
+    <t>rs-observation-other-injury</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Other Specified Injury</t>
+  </si>
+  <si>
+    <t>null#417163006</t>
+  </si>
+  <si>
+    <t>rs-observation-other-risk-factors</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Other Risk Factors</t>
+  </si>
+  <si>
+    <t>null#80943009</t>
+  </si>
+  <si>
+    <t>rs-observation-other-vehicle</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Other Vehicle/Object Involved</t>
+  </si>
+  <si>
+    <t>null#other-vehicle-involved</t>
+  </si>
+  <si>
+    <t>rs-observation-outcome-discharge</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Outcome at Discharge</t>
+  </si>
+  <si>
+    <t>null#418138009</t>
+  </si>
+  <si>
+    <t>rs-observation-outcome-release</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Outcome at Release</t>
+  </si>
+  <si>
+    <t>rs-observation-patients-vehicle</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Patient's Vehicle</t>
+  </si>
+  <si>
+    <t>null#patients-vehicle</t>
+  </si>
+  <si>
+    <t>rs-observation-place-of-occurrence</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Place of Occurrence</t>
+  </si>
+  <si>
+    <t>null#place-of-occurrence</t>
+  </si>
+  <si>
+    <t>rs-observation-position-of-patient</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Position of Patient</t>
+  </si>
+  <si>
+    <t>null#position-of-patient</t>
+  </si>
+  <si>
+    <t>rs-observation-pulse-quality</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Pulse Quality</t>
+  </si>
+  <si>
+    <t>null#78564009</t>
+  </si>
+  <si>
+    <t>rs-observation-pulse-rate</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Pulse Rate</t>
+  </si>
+  <si>
+    <t>rs-observation-pulse-rhythm</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Pulse Rhythm</t>
+  </si>
+  <si>
+    <t>null#364095004</t>
+  </si>
+  <si>
+    <t>rs-observation-pupils</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Pupils</t>
+  </si>
+  <si>
+    <t>null#271733001</t>
+  </si>
+  <si>
+    <t>rs-observation-referred-by-facility</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Referred By Facility</t>
+  </si>
+  <si>
+    <t>null#307836003</t>
+  </si>
+  <si>
+    <t>rs-observation-reported-complaint</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Reported Complaint</t>
+  </si>
+  <si>
+    <t>null#1269489004</t>
+  </si>
+  <si>
+    <t>rs-observation-respiratory-rate</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Respiratory Rate</t>
+  </si>
+  <si>
+    <t>null#86290005</t>
+  </si>
+  <si>
+    <t>rs-observation-respiratory-rhythm</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Respiratory Rhythm</t>
+  </si>
+  <si>
+    <t>null#248582003</t>
+  </si>
+  <si>
+    <t>rs-observation-runreport-comments</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Run Report Comments</t>
+  </si>
+  <si>
+    <t>null#77999-1</t>
+  </si>
+  <si>
+    <t>rs-observation-safety-accessories</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Safety Accessories</t>
+  </si>
+  <si>
+    <t>null#386812007</t>
+  </si>
+  <si>
+    <t>rs-observation-status-on-arrival</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Status on Arrival</t>
+  </si>
+  <si>
+    <t>null#status-on-arrival</t>
+  </si>
+  <si>
+    <t>rs-observation-status-on-arrival-alive</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - If Alive: Conscious/Unconscious</t>
+  </si>
+  <si>
+    <t>null#status-on-arrival-alive</t>
+  </si>
+  <si>
+    <t>rs-observation-time-departed</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Time Departed Scene</t>
+  </si>
+  <si>
+    <t>null#69475-2</t>
+  </si>
+  <si>
+    <t>rs-observation-time-enroute</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Time Enroute</t>
+  </si>
+  <si>
+    <t>null#69472-9</t>
+  </si>
+  <si>
+    <t>rs-observation-time-hospital-arrival</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Time of Hospital Arrival</t>
+  </si>
+  <si>
+    <t>null#405799000</t>
+  </si>
+  <si>
+    <t>rs-observation-time-of-consultation</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Time of Consultation</t>
+  </si>
+  <si>
+    <t>null#406544004</t>
+  </si>
+  <si>
+    <t>rs-observation-time-of-injury</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Time of Injury</t>
+  </si>
+  <si>
+    <t>null#263501003</t>
+  </si>
+  <si>
+    <t>rs-observation-time-on-scene</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Time On Scene</t>
+  </si>
+  <si>
+    <t>null#405798008</t>
+  </si>
+  <si>
+    <t>rs-observation-time-received</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Time Received</t>
+  </si>
+  <si>
+    <t>null#405796007</t>
+  </si>
+  <si>
+    <t>rs-observation-time-station-arrival</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Time of Emergency Station Arrival</t>
+  </si>
+  <si>
+    <t>null#11288-8</t>
+  </si>
+  <si>
+    <t>rs-observation-traffic-investigator</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Presence of Traffic Investigator</t>
+  </si>
+  <si>
+    <t>null#159679004</t>
+  </si>
+  <si>
+    <t>rs-observation-transferred-from-facility</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Transferred From Facility</t>
+  </si>
+  <si>
+    <t>null#74199-1</t>
+  </si>
+  <si>
+    <t>rs-observation-transport-vehicular-accident</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Transport/Vehicular Accident</t>
+  </si>
+  <si>
+    <t>null#274215009</t>
+  </si>
+  <si>
+    <t>rs-observation-traumatic-amputation</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Traumatic Amputation</t>
+  </si>
+  <si>
+    <t>null#262595009</t>
+  </si>
+  <si>
+    <t>rs-observation-triage-priority</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Triage Priority</t>
+  </si>
+  <si>
+    <t>null#225390008</t>
+  </si>
+  <si>
+    <t>rs-observation-urgency</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Priority Level (Urgency)</t>
+  </si>
+  <si>
+    <t>null#260870009</t>
+  </si>
+  <si>
+    <t>rs-observation-vehicle-used</t>
+  </si>
+  <si>
+    <t>Road Safety Observation - Vehicle Used</t>
+  </si>
+  <si>
+    <t>null#36030000</t>
   </si>
 </sst>
 </file>
@@ -178,7 +901,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -219,6 +942,2736 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D52" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D53" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E56" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E57" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D58" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E58" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D59" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E59" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E60" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E62" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E63" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E64" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D65" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E65" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D66" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E66" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D67" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E67" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E68" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D69" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E69" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E70" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D71" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E71" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D72" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E72" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D73" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E73" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D74" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E74" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D75" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E75" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D76" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E76" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D77" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E77" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D78" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E78" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D79" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E79" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -50,7 +50,7 @@
     <t>rs-observation-abrasion</t>
   </si>
   <si>
-    <t>Road Safety Observation - Abrasion</t>
+    <t>RS Observation - Abrasion</t>
   </si>
   <si>
     <t/>
@@ -74,7 +74,7 @@
     <t>rs-observation-activity-at-incident</t>
   </si>
   <si>
-    <t>Road Safety Observation - Activity at Time of Incident</t>
+    <t>RS Observation - Activity at Time of Incident</t>
   </si>
   <si>
     <t>null#11372-0</t>
@@ -86,7 +86,7 @@
     <t>rs-observation-avulsion</t>
   </si>
   <si>
-    <t>Road Safety Observation - Avulsion</t>
+    <t>RS Observation - Avulsion</t>
   </si>
   <si>
     <t>null#284554003</t>
@@ -95,7 +95,7 @@
     <t>rs-observation-blood-alcohol</t>
   </si>
   <si>
-    <t>Road Safety Observation - Blood Alcohol Concentration</t>
+    <t>RS Observation - Blood Alcohol Concentration</t>
   </si>
   <si>
     <t>null#167009006</t>
@@ -107,7 +107,7 @@
     <t>rs-observation-blood-pressure</t>
   </si>
   <si>
-    <t>Road Safety Observation - Blood Pressure</t>
+    <t>RS Observation - Blood Pressure</t>
   </si>
   <si>
     <t>null#85354-9</t>
@@ -116,7 +116,7 @@
     <t>rs-observation-body-temperature</t>
   </si>
   <si>
-    <t>Road Safety Observation - Body Temperature</t>
+    <t>RS Observation - Body Temperature</t>
   </si>
   <si>
     <t>null#386725007</t>
@@ -125,7 +125,7 @@
     <t>rs-observation-breath-sounds</t>
   </si>
   <si>
-    <t>Road Safety Observation - Breath Sounds</t>
+    <t>RS Observation - Breath Sounds</t>
   </si>
   <si>
     <t>null#52653008</t>
@@ -134,7 +134,7 @@
     <t>rs-observation-call-source</t>
   </si>
   <si>
-    <t>Road Safety Observation - Call Source</t>
+    <t>RS Observation - Call Source</t>
   </si>
   <si>
     <t>null#397663001</t>
@@ -146,7 +146,7 @@
     <t>rs-observation-cctv-available</t>
   </si>
   <si>
-    <t>Road Safety Observation - CCTV Available</t>
+    <t>RS Observation - CCTV Available</t>
   </si>
   <si>
     <t>null#360000005</t>
@@ -155,7 +155,7 @@
     <t>rs-observation-clinical-remarks</t>
   </si>
   <si>
-    <t>Road Safety Observation - Clinical Remarks</t>
+    <t>RS Observation - Clinical Remarks</t>
   </si>
   <si>
     <t>null#clinical-remarks</t>
@@ -164,7 +164,7 @@
     <t>rs-observation-collision-type</t>
   </si>
   <si>
-    <t>Road Safety Observation - Collision Type</t>
+    <t>RS Observation - Collision Type</t>
   </si>
   <si>
     <t>null#collision-type</t>
@@ -173,7 +173,7 @@
     <t>rs-observation-collision-vs-noncollision</t>
   </si>
   <si>
-    <t>Road Safety Observation - Collision vs Non-Collision</t>
+    <t>RS Observation - Collision vs Non-Collision</t>
   </si>
   <si>
     <t>null#collision-category</t>
@@ -182,7 +182,7 @@
     <t>rs-observation-concussion</t>
   </si>
   <si>
-    <t>Road Safety Observation - Concussion</t>
+    <t>RS Observation - Concussion</t>
   </si>
   <si>
     <t>null#110030002</t>
@@ -191,7 +191,7 @@
     <t>rs-observation-condition-of-patient</t>
   </si>
   <si>
-    <t>Road Safety Observation - Condition of Patient</t>
+    <t>RS Observation - Condition of Patient</t>
   </si>
   <si>
     <t>null#12386002</t>
@@ -200,7 +200,7 @@
     <t>rs-observation-contusion</t>
   </si>
   <si>
-    <t>Road Safety Observation - Contusion</t>
+    <t>RS Observation - Contusion</t>
   </si>
   <si>
     <t>null#125667009</t>
@@ -209,7 +209,7 @@
     <t>rs-observation-cyanosis</t>
   </si>
   <si>
-    <t>Road Safety Observation - Cyanosis</t>
+    <t>RS Observation - Cyanosis</t>
   </si>
   <si>
     <t>null#3415004</t>
@@ -218,7 +218,7 @@
     <t>rs-observation-date-of-consultation</t>
   </si>
   <si>
-    <t>Road Safety Observation - Date of Consultation</t>
+    <t>RS Observation - Date of Consultation</t>
   </si>
   <si>
     <t>null#406543005</t>
@@ -230,7 +230,7 @@
     <t>rs-observation-date-of-injury</t>
   </si>
   <si>
-    <t>Road Safety Observation - Date of Injury</t>
+    <t>RS Observation - Date of Injury</t>
   </si>
   <si>
     <t>null#439771001</t>
@@ -239,7 +239,7 @@
     <t>rs-observation-date-received</t>
   </si>
   <si>
-    <t>Road Safety Observation - Date/Time Received by EMS</t>
+    <t>RS Observation - Date/Time Received by EMS</t>
   </si>
   <si>
     <t>null#30976-5</t>
@@ -248,7 +248,7 @@
     <t>rs-observation-ec-bites-stings</t>
   </si>
   <si>
-    <t>Road Safety Observation - External Cause: Bites/Stings</t>
+    <t>RS Observation - External Cause: Bites/Stings</t>
   </si>
   <si>
     <t>null#242651001</t>
@@ -257,7 +257,7 @@
     <t>rs-observation-ec-burns</t>
   </si>
   <si>
-    <t>Road Safety Observation - External Cause: Burns</t>
+    <t>RS Observation - External Cause: Burns</t>
   </si>
   <si>
     <t>null#242490006</t>
@@ -266,7 +266,7 @@
     <t>rs-observation-ec-chemical</t>
   </si>
   <si>
-    <t>Road Safety Observation - External Cause: Chemical/Substance</t>
+    <t>RS Observation - External Cause: Chemical/Substance</t>
   </si>
   <si>
     <t>null#133261000119105</t>
@@ -275,7 +275,7 @@
     <t>rs-observation-ec-drowning</t>
   </si>
   <si>
-    <t>Road Safety Observation - External Cause: Drowning</t>
+    <t>RS Observation - External Cause: Drowning</t>
   </si>
   <si>
     <t>null#40947009</t>
@@ -284,7 +284,7 @@
     <t>rs-observation-ec-fall</t>
   </si>
   <si>
-    <t>Road Safety Observation - External Cause: Fall</t>
+    <t>RS Observation - External Cause: Fall</t>
   </si>
   <si>
     <t>null#1912002</t>
@@ -293,7 +293,7 @@
     <t>rs-observation-ec-firecracker</t>
   </si>
   <si>
-    <t>Road Safety Observation - External Cause: Firecracker</t>
+    <t>RS Observation - External Cause: Firecracker</t>
   </si>
   <si>
     <t>null#218100007</t>
@@ -302,7 +302,7 @@
     <t>rs-observation-ec-forces-of-nature</t>
   </si>
   <si>
-    <t>Road Safety Observation - External Cause: Exposure to Forces of Nature</t>
+    <t>RS Observation - External Cause: Exposure to Forces of Nature</t>
   </si>
   <si>
     <t>null#276746005</t>
@@ -311,7 +311,7 @@
     <t>rs-observation-ec-gunshot</t>
   </si>
   <si>
-    <t>Road Safety Observation - External Cause: Gunshot</t>
+    <t>RS Observation - External Cause: Gunshot</t>
   </si>
   <si>
     <t>null#63409001</t>
@@ -320,7 +320,7 @@
     <t>rs-observation-ec-hanging-strangulation</t>
   </si>
   <si>
-    <t>Road Safety Observation - External Cause: Hanging/Strangulation</t>
+    <t>RS Observation - External Cause: Hanging/Strangulation</t>
   </si>
   <si>
     <t>null#212976008</t>
@@ -329,7 +329,7 @@
     <t>rs-observation-ec-mauling-assault</t>
   </si>
   <si>
-    <t>Road Safety Observation - External Cause: Mauling/Assault</t>
+    <t>RS Observation - External Cause: Mauling/Assault</t>
   </si>
   <si>
     <t>null#52684005</t>
@@ -338,7 +338,7 @@
     <t>rs-observation-ec-other</t>
   </si>
   <si>
-    <t>Road Safety Observation - External Cause: Other</t>
+    <t>RS Observation - External Cause: Other</t>
   </si>
   <si>
     <t>null#773760007</t>
@@ -347,7 +347,7 @@
     <t>rs-observation-ec-sexual-assault</t>
   </si>
   <si>
-    <t>Road Safety Observation - External Cause: Sexual Assault/Abuse/Rape (Alleged)</t>
+    <t>RS Observation - External Cause: Sexual Assault/Abuse/Rape (Alleged)</t>
   </si>
   <si>
     <t>null#248110007</t>
@@ -356,7 +356,7 @@
     <t>rs-observation-ec-sharp-object</t>
   </si>
   <si>
-    <t>Road Safety Observation - External Cause: Contact with Sharp Object</t>
+    <t>RS Observation - External Cause: Contact with Sharp Object</t>
   </si>
   <si>
     <t>null#69129000</t>
@@ -365,7 +365,7 @@
     <t>rs-observation-extent-of-injury</t>
   </si>
   <si>
-    <t>Road Safety Observation - Extent of Injury</t>
+    <t>RS Observation - Extent of Injury</t>
   </si>
   <si>
     <t>null#1255875007</t>
@@ -374,7 +374,7 @@
     <t>rs-observation-fracture</t>
   </si>
   <si>
-    <t>Road Safety Observation - Fracture</t>
+    <t>RS Observation - Fracture</t>
   </si>
   <si>
     <t>null#125605004</t>
@@ -383,7 +383,7 @@
     <t>rs-observation-gcs</t>
   </si>
   <si>
-    <t>Road Safety Observation - Glasgow Coma Scale</t>
+    <t>RS Observation - Glasgow Coma Scale</t>
   </si>
   <si>
     <t>null#248241002</t>
@@ -392,7 +392,7 @@
     <t>rs-observation-how-many-patients</t>
   </si>
   <si>
-    <t>Road Safety Observation - How Many Patients Involved</t>
+    <t>RS Observation - How Many Patients Involved</t>
   </si>
   <si>
     <t>null#how-many-patients</t>
@@ -404,7 +404,7 @@
     <t>rs-observation-how-many-vehicles</t>
   </si>
   <si>
-    <t>Road Safety Observation - How Many Vehicles Involved</t>
+    <t>RS Observation - How Many Vehicles Involved</t>
   </si>
   <si>
     <t>null#how-many-vehicles</t>
@@ -413,7 +413,7 @@
     <t>rs-observation-injury-datetime</t>
   </si>
   <si>
-    <t>Road Safety Observation - Date/Time of Injury</t>
+    <t>RS Observation - Date/Time of Injury</t>
   </si>
   <si>
     <t>null#11368-8</t>
@@ -422,7 +422,7 @@
     <t>rs-observation-level-of-consciousness</t>
   </si>
   <si>
-    <t>Road Safety Observation - Level of Consciousness (AVPU)</t>
+    <t>RS Observation - Level of Consciousness (AVPU)</t>
   </si>
   <si>
     <t>null#449159002</t>
@@ -431,7 +431,7 @@
     <t>rs-observation-mode-of-transport</t>
   </si>
   <si>
-    <t>Road Safety Observation - Mode of Transport to Facility</t>
+    <t>RS Observation - Mode of Transport to Facility</t>
   </si>
   <si>
     <t>null#74286-6</t>
@@ -440,7 +440,7 @@
     <t>rs-observation-multiple-injuries</t>
   </si>
   <si>
-    <t>Road Safety Observation - Multiple Injuries?</t>
+    <t>RS Observation - Multiple Injuries?</t>
   </si>
   <si>
     <t>null#262519004</t>
@@ -455,7 +455,7 @@
     <t>rs-observation-open-wound</t>
   </si>
   <si>
-    <t>Road Safety Observation - Open Wound</t>
+    <t>RS Observation - Open Wound</t>
   </si>
   <si>
     <t>null#125643001</t>
@@ -464,7 +464,7 @@
     <t>rs-observation-other-injury</t>
   </si>
   <si>
-    <t>Road Safety Observation - Other Specified Injury</t>
+    <t>RS Observation - Other Specified Injury</t>
   </si>
   <si>
     <t>null#417163006</t>
@@ -473,7 +473,7 @@
     <t>rs-observation-other-risk-factors</t>
   </si>
   <si>
-    <t>Road Safety Observation - Other Risk Factors</t>
+    <t>RS Observation - Other Risk Factors</t>
   </si>
   <si>
     <t>null#80943009</t>
@@ -482,7 +482,7 @@
     <t>rs-observation-other-vehicle</t>
   </si>
   <si>
-    <t>Road Safety Observation - Other Vehicle/Object Involved</t>
+    <t>RS Observation - Other Vehicle/Object Involved</t>
   </si>
   <si>
     <t>null#other-vehicle-involved</t>
@@ -491,7 +491,7 @@
     <t>rs-observation-outcome-discharge</t>
   </si>
   <si>
-    <t>Road Safety Observation - Outcome at Discharge</t>
+    <t>RS Observation - Outcome at Discharge</t>
   </si>
   <si>
     <t>null#418138009</t>
@@ -500,13 +500,13 @@
     <t>rs-observation-outcome-release</t>
   </si>
   <si>
-    <t>Road Safety Observation - Outcome at Release</t>
+    <t>RS Observation - Outcome at Release</t>
   </si>
   <si>
     <t>rs-observation-patients-vehicle</t>
   </si>
   <si>
-    <t>Road Safety Observation - Patient's Vehicle</t>
+    <t>RS Observation - Patient's Vehicle</t>
   </si>
   <si>
     <t>null#patients-vehicle</t>
@@ -515,7 +515,7 @@
     <t>rs-observation-place-of-occurrence</t>
   </si>
   <si>
-    <t>Road Safety Observation - Place of Occurrence</t>
+    <t>RS Observation - Place of Occurrence</t>
   </si>
   <si>
     <t>null#place-of-occurrence</t>
@@ -524,7 +524,7 @@
     <t>rs-observation-position-of-patient</t>
   </si>
   <si>
-    <t>Road Safety Observation - Position of Patient</t>
+    <t>RS Observation - Position of Patient</t>
   </si>
   <si>
     <t>null#position-of-patient</t>
@@ -533,7 +533,7 @@
     <t>rs-observation-pulse-quality</t>
   </si>
   <si>
-    <t>Road Safety Observation - Pulse Quality</t>
+    <t>RS Observation - Pulse Quality</t>
   </si>
   <si>
     <t>null#78564009</t>
@@ -542,13 +542,13 @@
     <t>rs-observation-pulse-rate</t>
   </si>
   <si>
-    <t>Road Safety Observation - Pulse Rate</t>
+    <t>RS Observation - Pulse Rate</t>
   </si>
   <si>
     <t>rs-observation-pulse-rhythm</t>
   </si>
   <si>
-    <t>Road Safety Observation - Pulse Rhythm</t>
+    <t>RS Observation - Pulse Rhythm</t>
   </si>
   <si>
     <t>null#364095004</t>
@@ -557,7 +557,7 @@
     <t>rs-observation-pupils</t>
   </si>
   <si>
-    <t>Road Safety Observation - Pupils</t>
+    <t>RS Observation - Pupils</t>
   </si>
   <si>
     <t>null#271733001</t>
@@ -566,7 +566,7 @@
     <t>rs-observation-referred-by-facility</t>
   </si>
   <si>
-    <t>Road Safety Observation - Referred By Facility</t>
+    <t>RS Observation - Referred By Facility</t>
   </si>
   <si>
     <t>null#307836003</t>
@@ -575,7 +575,7 @@
     <t>rs-observation-reported-complaint</t>
   </si>
   <si>
-    <t>Road Safety Observation - Reported Complaint</t>
+    <t>RS Observation - Reported Complaint</t>
   </si>
   <si>
     <t>null#1269489004</t>
@@ -584,7 +584,7 @@
     <t>rs-observation-respiratory-rate</t>
   </si>
   <si>
-    <t>Road Safety Observation - Respiratory Rate</t>
+    <t>RS Observation - Respiratory Rate</t>
   </si>
   <si>
     <t>null#86290005</t>
@@ -593,7 +593,7 @@
     <t>rs-observation-respiratory-rhythm</t>
   </si>
   <si>
-    <t>Road Safety Observation - Respiratory Rhythm</t>
+    <t>RS Observation - Respiratory Rhythm</t>
   </si>
   <si>
     <t>null#248582003</t>
@@ -602,7 +602,7 @@
     <t>rs-observation-runreport-comments</t>
   </si>
   <si>
-    <t>Road Safety Observation - Run Report Comments</t>
+    <t>RS Observation - Run Report Comments</t>
   </si>
   <si>
     <t>null#77999-1</t>
@@ -611,7 +611,7 @@
     <t>rs-observation-safety-accessories</t>
   </si>
   <si>
-    <t>Road Safety Observation - Safety Accessories</t>
+    <t>RS Observation - Safety Accessories</t>
   </si>
   <si>
     <t>null#386812007</t>
@@ -620,7 +620,7 @@
     <t>rs-observation-status-on-arrival</t>
   </si>
   <si>
-    <t>Road Safety Observation - Status on Arrival</t>
+    <t>RS Observation - Status on Arrival</t>
   </si>
   <si>
     <t>null#status-on-arrival</t>
@@ -629,7 +629,7 @@
     <t>rs-observation-status-on-arrival-alive</t>
   </si>
   <si>
-    <t>Road Safety Observation - If Alive: Conscious/Unconscious</t>
+    <t>RS Observation - If Alive: Conscious/Unconscious</t>
   </si>
   <si>
     <t>null#status-on-arrival-alive</t>
@@ -638,7 +638,7 @@
     <t>rs-observation-time-departed</t>
   </si>
   <si>
-    <t>Road Safety Observation - Time Departed Scene</t>
+    <t>RS Observation - Time Departed Scene</t>
   </si>
   <si>
     <t>null#69475-2</t>
@@ -647,7 +647,7 @@
     <t>rs-observation-time-enroute</t>
   </si>
   <si>
-    <t>Road Safety Observation - Time Enroute</t>
+    <t>RS Observation - Time Enroute</t>
   </si>
   <si>
     <t>null#69472-9</t>
@@ -656,7 +656,7 @@
     <t>rs-observation-time-hospital-arrival</t>
   </si>
   <si>
-    <t>Road Safety Observation - Time of Hospital Arrival</t>
+    <t>RS Observation - Time of Hospital Arrival</t>
   </si>
   <si>
     <t>null#405799000</t>
@@ -665,7 +665,7 @@
     <t>rs-observation-time-of-consultation</t>
   </si>
   <si>
-    <t>Road Safety Observation - Time of Consultation</t>
+    <t>RS Observation - Time of Consultation</t>
   </si>
   <si>
     <t>null#406544004</t>
@@ -674,7 +674,7 @@
     <t>rs-observation-time-of-injury</t>
   </si>
   <si>
-    <t>Road Safety Observation - Time of Injury</t>
+    <t>RS Observation - Time of Injury</t>
   </si>
   <si>
     <t>null#263501003</t>
@@ -683,7 +683,7 @@
     <t>rs-observation-time-on-scene</t>
   </si>
   <si>
-    <t>Road Safety Observation - Time On Scene</t>
+    <t>RS Observation - Time On Scene</t>
   </si>
   <si>
     <t>null#405798008</t>
@@ -692,7 +692,7 @@
     <t>rs-observation-time-received</t>
   </si>
   <si>
-    <t>Road Safety Observation - Time Received</t>
+    <t>RS Observation - Time Received</t>
   </si>
   <si>
     <t>null#405796007</t>
@@ -701,7 +701,7 @@
     <t>rs-observation-time-station-arrival</t>
   </si>
   <si>
-    <t>Road Safety Observation - Time of Emergency Station Arrival</t>
+    <t>RS Observation - Time of Emergency Station Arrival</t>
   </si>
   <si>
     <t>null#11288-8</t>
@@ -710,7 +710,7 @@
     <t>rs-observation-traffic-investigator</t>
   </si>
   <si>
-    <t>Road Safety Observation - Presence of Traffic Investigator</t>
+    <t>RS Observation - Presence of Traffic Investigator</t>
   </si>
   <si>
     <t>null#159679004</t>
@@ -719,7 +719,7 @@
     <t>rs-observation-transferred-from-facility</t>
   </si>
   <si>
-    <t>Road Safety Observation - Transferred From Facility</t>
+    <t>RS Observation - Transferred From Facility</t>
   </si>
   <si>
     <t>null#74199-1</t>
@@ -728,7 +728,7 @@
     <t>rs-observation-transport-vehicular-accident</t>
   </si>
   <si>
-    <t>Road Safety Observation - Transport/Vehicular Accident</t>
+    <t>RS Observation - Transport/Vehicular Accident</t>
   </si>
   <si>
     <t>null#274215009</t>
@@ -737,7 +737,7 @@
     <t>rs-observation-traumatic-amputation</t>
   </si>
   <si>
-    <t>Road Safety Observation - Traumatic Amputation</t>
+    <t>RS Observation - Traumatic Amputation</t>
   </si>
   <si>
     <t>null#262595009</t>
@@ -746,7 +746,7 @@
     <t>rs-observation-triage-priority</t>
   </si>
   <si>
-    <t>Road Safety Observation - Triage Priority</t>
+    <t>RS Observation - Triage Priority</t>
   </si>
   <si>
     <t>null#225390008</t>
@@ -755,7 +755,7 @@
     <t>rs-observation-urgency</t>
   </si>
   <si>
-    <t>Road Safety Observation - Priority Level (Urgency)</t>
+    <t>RS Observation - Priority Level (Urgency)</t>
   </si>
   <si>
     <t>null#260870009</t>
@@ -764,7 +764,7 @@
     <t>rs-observation-vehicle-used</t>
   </si>
   <si>
-    <t>Road Safety Observation - Vehicle Used</t>
+    <t>RS Observation - Vehicle Used</t>
   </si>
   <si>
     <t>null#36030000</t>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -50,7 +50,7 @@
     <t>rs-observation-abrasion</t>
   </si>
   <si>
-    <t>RS Observation - Abrasion</t>
+    <t>Road Safety Observation - Abrasion</t>
   </si>
   <si>
     <t/>
@@ -74,7 +74,7 @@
     <t>rs-observation-activity-at-incident</t>
   </si>
   <si>
-    <t>RS Observation - Activity at Time of Incident</t>
+    <t>Road Safety Observation - Activity at Time of Incident</t>
   </si>
   <si>
     <t>null#11372-0</t>
@@ -86,7 +86,7 @@
     <t>rs-observation-avulsion</t>
   </si>
   <si>
-    <t>RS Observation - Avulsion</t>
+    <t>Road Safety Observation - Avulsion</t>
   </si>
   <si>
     <t>null#284554003</t>
@@ -95,7 +95,7 @@
     <t>rs-observation-blood-alcohol</t>
   </si>
   <si>
-    <t>RS Observation - Blood Alcohol Concentration</t>
+    <t>Road Safety Observation - Blood Alcohol Concentration</t>
   </si>
   <si>
     <t>null#167009006</t>
@@ -107,7 +107,7 @@
     <t>rs-observation-blood-pressure</t>
   </si>
   <si>
-    <t>RS Observation - Blood Pressure</t>
+    <t>Road Safety Observation - Blood Pressure</t>
   </si>
   <si>
     <t>null#85354-9</t>
@@ -116,7 +116,7 @@
     <t>rs-observation-body-temperature</t>
   </si>
   <si>
-    <t>RS Observation - Body Temperature</t>
+    <t>Road Safety Observation - Body Temperature</t>
   </si>
   <si>
     <t>null#386725007</t>
@@ -125,7 +125,7 @@
     <t>rs-observation-breath-sounds</t>
   </si>
   <si>
-    <t>RS Observation - Breath Sounds</t>
+    <t>Road Safety Observation - Breath Sounds</t>
   </si>
   <si>
     <t>null#52653008</t>
@@ -134,7 +134,7 @@
     <t>rs-observation-call-source</t>
   </si>
   <si>
-    <t>RS Observation - Call Source</t>
+    <t>Road Safety Observation - Call Source</t>
   </si>
   <si>
     <t>null#397663001</t>
@@ -146,7 +146,7 @@
     <t>rs-observation-cctv-available</t>
   </si>
   <si>
-    <t>RS Observation - CCTV Available</t>
+    <t>Road Safety Observation - CCTV Available</t>
   </si>
   <si>
     <t>null#360000005</t>
@@ -155,7 +155,7 @@
     <t>rs-observation-clinical-remarks</t>
   </si>
   <si>
-    <t>RS Observation - Clinical Remarks</t>
+    <t>Road Safety Observation - Clinical Remarks</t>
   </si>
   <si>
     <t>null#clinical-remarks</t>
@@ -164,7 +164,7 @@
     <t>rs-observation-collision-type</t>
   </si>
   <si>
-    <t>RS Observation - Collision Type</t>
+    <t>Road Safety Observation - Collision Type</t>
   </si>
   <si>
     <t>null#collision-type</t>
@@ -173,7 +173,7 @@
     <t>rs-observation-collision-vs-noncollision</t>
   </si>
   <si>
-    <t>RS Observation - Collision vs Non-Collision</t>
+    <t>Road Safety Observation - Collision vs Non-Collision</t>
   </si>
   <si>
     <t>null#collision-category</t>
@@ -182,7 +182,7 @@
     <t>rs-observation-concussion</t>
   </si>
   <si>
-    <t>RS Observation - Concussion</t>
+    <t>Road Safety Observation - Concussion</t>
   </si>
   <si>
     <t>null#110030002</t>
@@ -191,7 +191,7 @@
     <t>rs-observation-condition-of-patient</t>
   </si>
   <si>
-    <t>RS Observation - Condition of Patient</t>
+    <t>Road Safety Observation - Condition of Patient</t>
   </si>
   <si>
     <t>null#12386002</t>
@@ -200,7 +200,7 @@
     <t>rs-observation-contusion</t>
   </si>
   <si>
-    <t>RS Observation - Contusion</t>
+    <t>Road Safety Observation - Contusion</t>
   </si>
   <si>
     <t>null#125667009</t>
@@ -209,7 +209,7 @@
     <t>rs-observation-cyanosis</t>
   </si>
   <si>
-    <t>RS Observation - Cyanosis</t>
+    <t>Road Safety Observation - Cyanosis</t>
   </si>
   <si>
     <t>null#3415004</t>
@@ -218,7 +218,7 @@
     <t>rs-observation-date-of-consultation</t>
   </si>
   <si>
-    <t>RS Observation - Date of Consultation</t>
+    <t>Road Safety Observation - Date of Consultation</t>
   </si>
   <si>
     <t>null#406543005</t>
@@ -230,7 +230,7 @@
     <t>rs-observation-date-of-injury</t>
   </si>
   <si>
-    <t>RS Observation - Date of Injury</t>
+    <t>Road Safety Observation - Date of Injury</t>
   </si>
   <si>
     <t>null#439771001</t>
@@ -239,7 +239,7 @@
     <t>rs-observation-date-received</t>
   </si>
   <si>
-    <t>RS Observation - Date/Time Received by EMS</t>
+    <t>Road Safety Observation - Date/Time Received by EMS</t>
   </si>
   <si>
     <t>null#30976-5</t>
@@ -248,7 +248,7 @@
     <t>rs-observation-ec-bites-stings</t>
   </si>
   <si>
-    <t>RS Observation - External Cause: Bites/Stings</t>
+    <t>Road Safety Observation - External Cause: Bites/Stings</t>
   </si>
   <si>
     <t>null#242651001</t>
@@ -257,7 +257,7 @@
     <t>rs-observation-ec-burns</t>
   </si>
   <si>
-    <t>RS Observation - External Cause: Burns</t>
+    <t>Road Safety Observation - External Cause: Burns</t>
   </si>
   <si>
     <t>null#242490006</t>
@@ -266,7 +266,7 @@
     <t>rs-observation-ec-chemical</t>
   </si>
   <si>
-    <t>RS Observation - External Cause: Chemical/Substance</t>
+    <t>Road Safety Observation - External Cause: Chemical/Substance</t>
   </si>
   <si>
     <t>null#133261000119105</t>
@@ -275,7 +275,7 @@
     <t>rs-observation-ec-drowning</t>
   </si>
   <si>
-    <t>RS Observation - External Cause: Drowning</t>
+    <t>Road Safety Observation - External Cause: Drowning</t>
   </si>
   <si>
     <t>null#40947009</t>
@@ -284,7 +284,7 @@
     <t>rs-observation-ec-fall</t>
   </si>
   <si>
-    <t>RS Observation - External Cause: Fall</t>
+    <t>Road Safety Observation - External Cause: Fall</t>
   </si>
   <si>
     <t>null#1912002</t>
@@ -293,7 +293,7 @@
     <t>rs-observation-ec-firecracker</t>
   </si>
   <si>
-    <t>RS Observation - External Cause: Firecracker</t>
+    <t>Road Safety Observation - External Cause: Firecracker</t>
   </si>
   <si>
     <t>null#218100007</t>
@@ -302,7 +302,7 @@
     <t>rs-observation-ec-forces-of-nature</t>
   </si>
   <si>
-    <t>RS Observation - External Cause: Exposure to Forces of Nature</t>
+    <t>Road Safety Observation - External Cause: Exposure to Forces of Nature</t>
   </si>
   <si>
     <t>null#276746005</t>
@@ -311,7 +311,7 @@
     <t>rs-observation-ec-gunshot</t>
   </si>
   <si>
-    <t>RS Observation - External Cause: Gunshot</t>
+    <t>Road Safety Observation - External Cause: Gunshot</t>
   </si>
   <si>
     <t>null#63409001</t>
@@ -320,7 +320,7 @@
     <t>rs-observation-ec-hanging-strangulation</t>
   </si>
   <si>
-    <t>RS Observation - External Cause: Hanging/Strangulation</t>
+    <t>Road Safety Observation - External Cause: Hanging/Strangulation</t>
   </si>
   <si>
     <t>null#212976008</t>
@@ -329,7 +329,7 @@
     <t>rs-observation-ec-mauling-assault</t>
   </si>
   <si>
-    <t>RS Observation - External Cause: Mauling/Assault</t>
+    <t>Road Safety Observation - External Cause: Mauling/Assault</t>
   </si>
   <si>
     <t>null#52684005</t>
@@ -338,7 +338,7 @@
     <t>rs-observation-ec-other</t>
   </si>
   <si>
-    <t>RS Observation - External Cause: Other</t>
+    <t>Road Safety Observation - External Cause: Other</t>
   </si>
   <si>
     <t>null#773760007</t>
@@ -347,7 +347,7 @@
     <t>rs-observation-ec-sexual-assault</t>
   </si>
   <si>
-    <t>RS Observation - External Cause: Sexual Assault/Abuse/Rape (Alleged)</t>
+    <t>Road Safety Observation - External Cause: Sexual Assault/Abuse/Rape (Alleged)</t>
   </si>
   <si>
     <t>null#248110007</t>
@@ -356,7 +356,7 @@
     <t>rs-observation-ec-sharp-object</t>
   </si>
   <si>
-    <t>RS Observation - External Cause: Contact with Sharp Object</t>
+    <t>Road Safety Observation - External Cause: Contact with Sharp Object</t>
   </si>
   <si>
     <t>null#69129000</t>
@@ -365,7 +365,7 @@
     <t>rs-observation-extent-of-injury</t>
   </si>
   <si>
-    <t>RS Observation - Extent of Injury</t>
+    <t>Road Safety Observation - Extent of Injury</t>
   </si>
   <si>
     <t>null#1255875007</t>
@@ -374,7 +374,7 @@
     <t>rs-observation-fracture</t>
   </si>
   <si>
-    <t>RS Observation - Fracture</t>
+    <t>Road Safety Observation - Fracture</t>
   </si>
   <si>
     <t>null#125605004</t>
@@ -383,7 +383,7 @@
     <t>rs-observation-gcs</t>
   </si>
   <si>
-    <t>RS Observation - Glasgow Coma Scale</t>
+    <t>Road Safety Observation - Glasgow Coma Scale</t>
   </si>
   <si>
     <t>null#248241002</t>
@@ -392,7 +392,7 @@
     <t>rs-observation-how-many-patients</t>
   </si>
   <si>
-    <t>RS Observation - How Many Patients Involved</t>
+    <t>Road Safety Observation - How Many Patients Involved</t>
   </si>
   <si>
     <t>null#how-many-patients</t>
@@ -404,7 +404,7 @@
     <t>rs-observation-how-many-vehicles</t>
   </si>
   <si>
-    <t>RS Observation - How Many Vehicles Involved</t>
+    <t>Road Safety Observation - How Many Vehicles Involved</t>
   </si>
   <si>
     <t>null#how-many-vehicles</t>
@@ -413,7 +413,7 @@
     <t>rs-observation-injury-datetime</t>
   </si>
   <si>
-    <t>RS Observation - Date/Time of Injury</t>
+    <t>Road Safety Observation - Date/Time of Injury</t>
   </si>
   <si>
     <t>null#11368-8</t>
@@ -422,7 +422,7 @@
     <t>rs-observation-level-of-consciousness</t>
   </si>
   <si>
-    <t>RS Observation - Level of Consciousness (AVPU)</t>
+    <t>Road Safety Observation - Level of Consciousness (AVPU)</t>
   </si>
   <si>
     <t>null#449159002</t>
@@ -431,7 +431,7 @@
     <t>rs-observation-mode-of-transport</t>
   </si>
   <si>
-    <t>RS Observation - Mode of Transport to Facility</t>
+    <t>Road Safety Observation - Mode of Transport to Facility</t>
   </si>
   <si>
     <t>null#74286-6</t>
@@ -440,7 +440,7 @@
     <t>rs-observation-multiple-injuries</t>
   </si>
   <si>
-    <t>RS Observation - Multiple Injuries?</t>
+    <t>Road Safety Observation - Multiple Injuries?</t>
   </si>
   <si>
     <t>null#262519004</t>
@@ -455,7 +455,7 @@
     <t>rs-observation-open-wound</t>
   </si>
   <si>
-    <t>RS Observation - Open Wound</t>
+    <t>Road Safety Observation - Open Wound</t>
   </si>
   <si>
     <t>null#125643001</t>
@@ -464,7 +464,7 @@
     <t>rs-observation-other-injury</t>
   </si>
   <si>
-    <t>RS Observation - Other Specified Injury</t>
+    <t>Road Safety Observation - Other Specified Injury</t>
   </si>
   <si>
     <t>null#417163006</t>
@@ -473,7 +473,7 @@
     <t>rs-observation-other-risk-factors</t>
   </si>
   <si>
-    <t>RS Observation - Other Risk Factors</t>
+    <t>Road Safety Observation - Other Risk Factors</t>
   </si>
   <si>
     <t>null#80943009</t>
@@ -482,7 +482,7 @@
     <t>rs-observation-other-vehicle</t>
   </si>
   <si>
-    <t>RS Observation - Other Vehicle/Object Involved</t>
+    <t>Road Safety Observation - Other Vehicle/Object Involved</t>
   </si>
   <si>
     <t>null#other-vehicle-involved</t>
@@ -491,7 +491,7 @@
     <t>rs-observation-outcome-discharge</t>
   </si>
   <si>
-    <t>RS Observation - Outcome at Discharge</t>
+    <t>Road Safety Observation - Outcome at Discharge</t>
   </si>
   <si>
     <t>null#418138009</t>
@@ -500,13 +500,13 @@
     <t>rs-observation-outcome-release</t>
   </si>
   <si>
-    <t>RS Observation - Outcome at Release</t>
+    <t>Road Safety Observation - Outcome at Release</t>
   </si>
   <si>
     <t>rs-observation-patients-vehicle</t>
   </si>
   <si>
-    <t>RS Observation - Patient's Vehicle</t>
+    <t>Road Safety Observation - Patient's Vehicle</t>
   </si>
   <si>
     <t>null#patients-vehicle</t>
@@ -515,7 +515,7 @@
     <t>rs-observation-place-of-occurrence</t>
   </si>
   <si>
-    <t>RS Observation - Place of Occurrence</t>
+    <t>Road Safety Observation - Place of Occurrence</t>
   </si>
   <si>
     <t>null#place-of-occurrence</t>
@@ -524,7 +524,7 @@
     <t>rs-observation-position-of-patient</t>
   </si>
   <si>
-    <t>RS Observation - Position of Patient</t>
+    <t>Road Safety Observation - Position of Patient</t>
   </si>
   <si>
     <t>null#position-of-patient</t>
@@ -533,7 +533,7 @@
     <t>rs-observation-pulse-quality</t>
   </si>
   <si>
-    <t>RS Observation - Pulse Quality</t>
+    <t>Road Safety Observation - Pulse Quality</t>
   </si>
   <si>
     <t>null#78564009</t>
@@ -542,13 +542,13 @@
     <t>rs-observation-pulse-rate</t>
   </si>
   <si>
-    <t>RS Observation - Pulse Rate</t>
+    <t>Road Safety Observation - Pulse Rate</t>
   </si>
   <si>
     <t>rs-observation-pulse-rhythm</t>
   </si>
   <si>
-    <t>RS Observation - Pulse Rhythm</t>
+    <t>Road Safety Observation - Pulse Rhythm</t>
   </si>
   <si>
     <t>null#364095004</t>
@@ -557,7 +557,7 @@
     <t>rs-observation-pupils</t>
   </si>
   <si>
-    <t>RS Observation - Pupils</t>
+    <t>Road Safety Observation - Pupils</t>
   </si>
   <si>
     <t>null#271733001</t>
@@ -566,7 +566,7 @@
     <t>rs-observation-referred-by-facility</t>
   </si>
   <si>
-    <t>RS Observation - Referred By Facility</t>
+    <t>Road Safety Observation - Referred By Facility</t>
   </si>
   <si>
     <t>null#307836003</t>
@@ -575,7 +575,7 @@
     <t>rs-observation-reported-complaint</t>
   </si>
   <si>
-    <t>RS Observation - Reported Complaint</t>
+    <t>Road Safety Observation - Reported Complaint</t>
   </si>
   <si>
     <t>null#1269489004</t>
@@ -584,7 +584,7 @@
     <t>rs-observation-respiratory-rate</t>
   </si>
   <si>
-    <t>RS Observation - Respiratory Rate</t>
+    <t>Road Safety Observation - Respiratory Rate</t>
   </si>
   <si>
     <t>null#86290005</t>
@@ -593,7 +593,7 @@
     <t>rs-observation-respiratory-rhythm</t>
   </si>
   <si>
-    <t>RS Observation - Respiratory Rhythm</t>
+    <t>Road Safety Observation - Respiratory Rhythm</t>
   </si>
   <si>
     <t>null#248582003</t>
@@ -602,7 +602,7 @@
     <t>rs-observation-runreport-comments</t>
   </si>
   <si>
-    <t>RS Observation - Run Report Comments</t>
+    <t>Road Safety Observation - Run Report Comments</t>
   </si>
   <si>
     <t>null#77999-1</t>
@@ -611,7 +611,7 @@
     <t>rs-observation-safety-accessories</t>
   </si>
   <si>
-    <t>RS Observation - Safety Accessories</t>
+    <t>Road Safety Observation - Safety Accessories</t>
   </si>
   <si>
     <t>null#386812007</t>
@@ -620,7 +620,7 @@
     <t>rs-observation-status-on-arrival</t>
   </si>
   <si>
-    <t>RS Observation - Status on Arrival</t>
+    <t>Road Safety Observation - Status on Arrival</t>
   </si>
   <si>
     <t>null#status-on-arrival</t>
@@ -629,7 +629,7 @@
     <t>rs-observation-status-on-arrival-alive</t>
   </si>
   <si>
-    <t>RS Observation - If Alive: Conscious/Unconscious</t>
+    <t>Road Safety Observation - If Alive: Conscious/Unconscious</t>
   </si>
   <si>
     <t>null#status-on-arrival-alive</t>
@@ -638,7 +638,7 @@
     <t>rs-observation-time-departed</t>
   </si>
   <si>
-    <t>RS Observation - Time Departed Scene</t>
+    <t>Road Safety Observation - Time Departed Scene</t>
   </si>
   <si>
     <t>null#69475-2</t>
@@ -647,7 +647,7 @@
     <t>rs-observation-time-enroute</t>
   </si>
   <si>
-    <t>RS Observation - Time Enroute</t>
+    <t>Road Safety Observation - Time Enroute</t>
   </si>
   <si>
     <t>null#69472-9</t>
@@ -656,7 +656,7 @@
     <t>rs-observation-time-hospital-arrival</t>
   </si>
   <si>
-    <t>RS Observation - Time of Hospital Arrival</t>
+    <t>Road Safety Observation - Time of Hospital Arrival</t>
   </si>
   <si>
     <t>null#405799000</t>
@@ -665,7 +665,7 @@
     <t>rs-observation-time-of-consultation</t>
   </si>
   <si>
-    <t>RS Observation - Time of Consultation</t>
+    <t>Road Safety Observation - Time of Consultation</t>
   </si>
   <si>
     <t>null#406544004</t>
@@ -674,7 +674,7 @@
     <t>rs-observation-time-of-injury</t>
   </si>
   <si>
-    <t>RS Observation - Time of Injury</t>
+    <t>Road Safety Observation - Time of Injury</t>
   </si>
   <si>
     <t>null#263501003</t>
@@ -683,7 +683,7 @@
     <t>rs-observation-time-on-scene</t>
   </si>
   <si>
-    <t>RS Observation - Time On Scene</t>
+    <t>Road Safety Observation - Time On Scene</t>
   </si>
   <si>
     <t>null#405798008</t>
@@ -692,7 +692,7 @@
     <t>rs-observation-time-received</t>
   </si>
   <si>
-    <t>RS Observation - Time Received</t>
+    <t>Road Safety Observation - Time Received</t>
   </si>
   <si>
     <t>null#405796007</t>
@@ -701,7 +701,7 @@
     <t>rs-observation-time-station-arrival</t>
   </si>
   <si>
-    <t>RS Observation - Time of Emergency Station Arrival</t>
+    <t>Road Safety Observation - Time of Emergency Station Arrival</t>
   </si>
   <si>
     <t>null#11288-8</t>
@@ -710,7 +710,7 @@
     <t>rs-observation-traffic-investigator</t>
   </si>
   <si>
-    <t>RS Observation - Presence of Traffic Investigator</t>
+    <t>Road Safety Observation - Presence of Traffic Investigator</t>
   </si>
   <si>
     <t>null#159679004</t>
@@ -719,7 +719,7 @@
     <t>rs-observation-transferred-from-facility</t>
   </si>
   <si>
-    <t>RS Observation - Transferred From Facility</t>
+    <t>Road Safety Observation - Transferred From Facility</t>
   </si>
   <si>
     <t>null#74199-1</t>
@@ -728,7 +728,7 @@
     <t>rs-observation-transport-vehicular-accident</t>
   </si>
   <si>
-    <t>RS Observation - Transport/Vehicular Accident</t>
+    <t>Road Safety Observation - Transport/Vehicular Accident</t>
   </si>
   <si>
     <t>null#274215009</t>
@@ -737,7 +737,7 @@
     <t>rs-observation-traumatic-amputation</t>
   </si>
   <si>
-    <t>RS Observation - Traumatic Amputation</t>
+    <t>Road Safety Observation - Traumatic Amputation</t>
   </si>
   <si>
     <t>null#262595009</t>
@@ -746,7 +746,7 @@
     <t>rs-observation-triage-priority</t>
   </si>
   <si>
-    <t>RS Observation - Triage Priority</t>
+    <t>Road Safety Observation - Triage Priority</t>
   </si>
   <si>
     <t>null#225390008</t>
@@ -755,7 +755,7 @@
     <t>rs-observation-urgency</t>
   </si>
   <si>
-    <t>RS Observation - Priority Level (Urgency)</t>
+    <t>Road Safety Observation - Priority Level (Urgency)</t>
   </si>
   <si>
     <t>null#260870009</t>
@@ -764,7 +764,7 @@
     <t>rs-observation-vehicle-used</t>
   </si>
   <si>
-    <t>RS Observation - Vehicle Used</t>
+    <t>Road Safety Observation - Vehicle Used</t>
   </si>
   <si>
     <t>null#36030000</t>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="205">
   <si>
     <t>Profile</t>
   </si>
@@ -104,15 +104,6 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>rs-observation-blood-pressure</t>
-  </si>
-  <si>
-    <t>RS Observation - Blood Pressure</t>
-  </si>
-  <si>
-    <t>null#85354-9</t>
-  </si>
-  <si>
     <t>rs-observation-body-temperature</t>
   </si>
   <si>
@@ -122,15 +113,6 @@
     <t>null#386725007</t>
   </si>
   <si>
-    <t>rs-observation-breath-sounds</t>
-  </si>
-  <si>
-    <t>RS Observation - Breath Sounds</t>
-  </si>
-  <si>
-    <t>null#52653008</t>
-  </si>
-  <si>
     <t>rs-observation-call-source</t>
   </si>
   <si>
@@ -158,7 +140,7 @@
     <t>RS Observation - Clinical Remarks</t>
   </si>
   <si>
-    <t>null#clinical-remarks</t>
+    <t>null#RRFREMARKS</t>
   </si>
   <si>
     <t>rs-observation-collision-type</t>
@@ -167,7 +149,7 @@
     <t>RS Observation - Collision Type</t>
   </si>
   <si>
-    <t>null#collision-type</t>
+    <t>null#COLLISIONTYPE</t>
   </si>
   <si>
     <t>rs-observation-collision-vs-noncollision</t>
@@ -176,7 +158,7 @@
     <t>RS Observation - Collision vs Non-Collision</t>
   </si>
   <si>
-    <t>null#collision-category</t>
+    <t>null#MVA-COLLISION</t>
   </si>
   <si>
     <t>rs-observation-concussion</t>
@@ -215,208 +197,193 @@
     <t>null#3415004</t>
   </si>
   <si>
-    <t>rs-observation-date-of-consultation</t>
-  </si>
-  <si>
-    <t>RS Observation - Date of Consultation</t>
-  </si>
-  <si>
-    <t>null#406543005</t>
+    <t>rs-observation-ec-bites-stings</t>
+  </si>
+  <si>
+    <t>RS Observation - External Cause: Bites/Stings</t>
+  </si>
+  <si>
+    <t>null#242651001</t>
+  </si>
+  <si>
+    <t>rs-observation-ec-burns</t>
+  </si>
+  <si>
+    <t>RS Observation - External Cause: Burns</t>
+  </si>
+  <si>
+    <t>null#242490006</t>
+  </si>
+  <si>
+    <t>rs-observation-ec-chemical</t>
+  </si>
+  <si>
+    <t>RS Observation - External Cause: Chemical/Substance</t>
+  </si>
+  <si>
+    <t>null#133261000119105</t>
+  </si>
+  <si>
+    <t>rs-observation-ec-drowning</t>
+  </si>
+  <si>
+    <t>RS Observation - External Cause: Drowning</t>
+  </si>
+  <si>
+    <t>null#40947009</t>
+  </si>
+  <si>
+    <t>rs-observation-ec-fall</t>
+  </si>
+  <si>
+    <t>RS Observation - External Cause: Fall</t>
+  </si>
+  <si>
+    <t>null#1912002</t>
+  </si>
+  <si>
+    <t>rs-observation-ec-firecracker</t>
+  </si>
+  <si>
+    <t>RS Observation - External Cause: Firecracker</t>
+  </si>
+  <si>
+    <t>null#218100007</t>
+  </si>
+  <si>
+    <t>rs-observation-ec-forces-of-nature</t>
+  </si>
+  <si>
+    <t>RS Observation - External Cause: Exposure to Forces of Nature</t>
+  </si>
+  <si>
+    <t>null#276746005</t>
+  </si>
+  <si>
+    <t>rs-observation-ec-gunshot</t>
+  </si>
+  <si>
+    <t>RS Observation - External Cause: Gunshot</t>
+  </si>
+  <si>
+    <t>null#63409001</t>
+  </si>
+  <si>
+    <t>rs-observation-ec-hanging-strangulation</t>
+  </si>
+  <si>
+    <t>RS Observation - External Cause: Hanging/Strangulation</t>
+  </si>
+  <si>
+    <t>null#212976008</t>
+  </si>
+  <si>
+    <t>rs-observation-ec-mauling-assault</t>
+  </si>
+  <si>
+    <t>RS Observation - External Cause: Mauling/Assault</t>
+  </si>
+  <si>
+    <t>null#52684005</t>
+  </si>
+  <si>
+    <t>rs-observation-ec-other</t>
+  </si>
+  <si>
+    <t>RS Observation - External Cause: Other</t>
+  </si>
+  <si>
+    <t>null#773760007</t>
+  </si>
+  <si>
+    <t>rs-observation-ec-sexual-assault</t>
+  </si>
+  <si>
+    <t>RS Observation - External Cause: Sexual Assault/Abuse/Rape (Alleged)</t>
+  </si>
+  <si>
+    <t>null#248110007</t>
+  </si>
+  <si>
+    <t>rs-observation-ec-sharp-object</t>
+  </si>
+  <si>
+    <t>RS Observation - External Cause: Contact with Sharp Object</t>
+  </si>
+  <si>
+    <t>null#69129000</t>
+  </si>
+  <si>
+    <t>rs-observation-fracture</t>
+  </si>
+  <si>
+    <t>RS Observation - Fracture</t>
+  </si>
+  <si>
+    <t>null#125605004</t>
+  </si>
+  <si>
+    <t>rs-observation-gcs</t>
+  </si>
+  <si>
+    <t>RS Observation - Glasgow Coma Scale</t>
+  </si>
+  <si>
+    <t>null#248241002</t>
+  </si>
+  <si>
+    <t>SNOMED CT#281395000</t>
+  </si>
+  <si>
+    <t>SNOMED CT#281397008</t>
+  </si>
+  <si>
+    <t>SNOMED CT#281396004</t>
+  </si>
+  <si>
+    <t>rs-observation-how-many-patients</t>
+  </si>
+  <si>
+    <t>RS Observation - How Many Patients Involved</t>
+  </si>
+  <si>
+    <t>null#how-many-patients</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>rs-observation-how-many-vehicles</t>
+  </si>
+  <si>
+    <t>RS Observation - How Many Vehicles Involved</t>
+  </si>
+  <si>
+    <t>null#how-many-vehicles</t>
+  </si>
+  <si>
+    <t>rs-observation-injury-datetime</t>
+  </si>
+  <si>
+    <t>RS Observation - Date/Time of Injury</t>
+  </si>
+  <si>
+    <t>null#439771001</t>
   </si>
   <si>
     <t>dateTime</t>
   </si>
   <si>
-    <t>rs-observation-date-of-injury</t>
-  </si>
-  <si>
-    <t>RS Observation - Date of Injury</t>
-  </si>
-  <si>
-    <t>null#439771001</t>
-  </si>
-  <si>
-    <t>rs-observation-date-received</t>
-  </si>
-  <si>
-    <t>RS Observation - Date/Time Received by EMS</t>
-  </si>
-  <si>
-    <t>null#30976-5</t>
-  </si>
-  <si>
-    <t>rs-observation-ec-bites-stings</t>
-  </si>
-  <si>
-    <t>RS Observation - External Cause: Bites/Stings</t>
-  </si>
-  <si>
-    <t>null#242651001</t>
-  </si>
-  <si>
-    <t>rs-observation-ec-burns</t>
-  </si>
-  <si>
-    <t>RS Observation - External Cause: Burns</t>
-  </si>
-  <si>
-    <t>null#242490006</t>
-  </si>
-  <si>
-    <t>rs-observation-ec-chemical</t>
-  </si>
-  <si>
-    <t>RS Observation - External Cause: Chemical/Substance</t>
-  </si>
-  <si>
-    <t>null#133261000119105</t>
-  </si>
-  <si>
-    <t>rs-observation-ec-drowning</t>
-  </si>
-  <si>
-    <t>RS Observation - External Cause: Drowning</t>
-  </si>
-  <si>
-    <t>null#40947009</t>
-  </si>
-  <si>
-    <t>rs-observation-ec-fall</t>
-  </si>
-  <si>
-    <t>RS Observation - External Cause: Fall</t>
-  </si>
-  <si>
-    <t>null#1912002</t>
-  </si>
-  <si>
-    <t>rs-observation-ec-firecracker</t>
-  </si>
-  <si>
-    <t>RS Observation - External Cause: Firecracker</t>
-  </si>
-  <si>
-    <t>null#218100007</t>
-  </si>
-  <si>
-    <t>rs-observation-ec-forces-of-nature</t>
-  </si>
-  <si>
-    <t>RS Observation - External Cause: Exposure to Forces of Nature</t>
-  </si>
-  <si>
-    <t>null#276746005</t>
-  </si>
-  <si>
-    <t>rs-observation-ec-gunshot</t>
-  </si>
-  <si>
-    <t>RS Observation - External Cause: Gunshot</t>
-  </si>
-  <si>
-    <t>null#63409001</t>
-  </si>
-  <si>
-    <t>rs-observation-ec-hanging-strangulation</t>
-  </si>
-  <si>
-    <t>RS Observation - External Cause: Hanging/Strangulation</t>
-  </si>
-  <si>
-    <t>null#212976008</t>
-  </si>
-  <si>
-    <t>rs-observation-ec-mauling-assault</t>
-  </si>
-  <si>
-    <t>RS Observation - External Cause: Mauling/Assault</t>
-  </si>
-  <si>
-    <t>null#52684005</t>
-  </si>
-  <si>
-    <t>rs-observation-ec-other</t>
-  </si>
-  <si>
-    <t>RS Observation - External Cause: Other</t>
-  </si>
-  <si>
-    <t>null#773760007</t>
-  </si>
-  <si>
-    <t>rs-observation-ec-sexual-assault</t>
-  </si>
-  <si>
-    <t>RS Observation - External Cause: Sexual Assault/Abuse/Rape (Alleged)</t>
-  </si>
-  <si>
-    <t>null#248110007</t>
-  </si>
-  <si>
-    <t>rs-observation-ec-sharp-object</t>
-  </si>
-  <si>
-    <t>RS Observation - External Cause: Contact with Sharp Object</t>
-  </si>
-  <si>
-    <t>null#69129000</t>
-  </si>
-  <si>
-    <t>rs-observation-extent-of-injury</t>
-  </si>
-  <si>
-    <t>RS Observation - Extent of Injury</t>
-  </si>
-  <si>
-    <t>null#1255875007</t>
-  </si>
-  <si>
-    <t>rs-observation-fracture</t>
-  </si>
-  <si>
-    <t>RS Observation - Fracture</t>
-  </si>
-  <si>
-    <t>null#125605004</t>
-  </si>
-  <si>
-    <t>rs-observation-gcs</t>
-  </si>
-  <si>
-    <t>RS Observation - Glasgow Coma Scale</t>
-  </si>
-  <si>
-    <t>null#248241002</t>
-  </si>
-  <si>
-    <t>rs-observation-how-many-patients</t>
-  </si>
-  <si>
-    <t>RS Observation - How Many Patients Involved</t>
-  </si>
-  <si>
-    <t>null#how-many-patients</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>rs-observation-how-many-vehicles</t>
-  </si>
-  <si>
-    <t>RS Observation - How Many Vehicles Involved</t>
-  </si>
-  <si>
-    <t>null#how-many-vehicles</t>
-  </si>
-  <si>
-    <t>rs-observation-injury-datetime</t>
-  </si>
-  <si>
-    <t>RS Observation - Date/Time of Injury</t>
-  </si>
-  <si>
-    <t>null#11368-8</t>
+    <t>rs-observation-injury-intent</t>
+  </si>
+  <si>
+    <t>RS Observation - Injury Intent</t>
+  </si>
+  <si>
+    <t>null#11375-3</t>
+  </si>
+  <si>
+    <t>http://www.roadsafetyph.doh.gov.ph/ValueSet/SILPH-InjuryIntent (preferred)</t>
   </si>
   <si>
     <t>rs-observation-level-of-consciousness</t>
@@ -425,7 +392,7 @@
     <t>RS Observation - Level of Consciousness (AVPU)</t>
   </si>
   <si>
-    <t>null#449159002</t>
+    <t>null#6942003</t>
   </si>
   <si>
     <t>rs-observation-mode-of-transport</t>
@@ -485,31 +452,25 @@
     <t>RS Observation - Other Vehicle/Object Involved</t>
   </si>
   <si>
-    <t>null#other-vehicle-involved</t>
-  </si>
-  <si>
-    <t>rs-observation-outcome-discharge</t>
-  </si>
-  <si>
-    <t>RS Observation - Outcome at Discharge</t>
+    <t>null#OTHERVEHICLE</t>
+  </si>
+  <si>
+    <t>rs-observation-outcome-release</t>
+  </si>
+  <si>
+    <t>RS Observation - Outcome at Release</t>
   </si>
   <si>
     <t>null#418138009</t>
   </si>
   <si>
-    <t>rs-observation-outcome-release</t>
-  </si>
-  <si>
-    <t>RS Observation - Outcome at Release</t>
-  </si>
-  <si>
     <t>rs-observation-patients-vehicle</t>
   </si>
   <si>
     <t>RS Observation - Patient's Vehicle</t>
   </si>
   <si>
-    <t>null#patients-vehicle</t>
+    <t>null#PATIENTVEHICLE</t>
   </si>
   <si>
     <t>rs-observation-place-of-occurrence</t>
@@ -518,7 +479,7 @@
     <t>RS Observation - Place of Occurrence</t>
   </si>
   <si>
-    <t>null#place-of-occurrence</t>
+    <t>null#PLACEOCCURRENCE</t>
   </si>
   <si>
     <t>rs-observation-position-of-patient</t>
@@ -527,31 +488,22 @@
     <t>RS Observation - Position of Patient</t>
   </si>
   <si>
-    <t>null#position-of-patient</t>
-  </si>
-  <si>
-    <t>rs-observation-pulse-quality</t>
-  </si>
-  <si>
-    <t>RS Observation - Pulse Quality</t>
+    <t>null#PATIENTPOSITION</t>
+  </si>
+  <si>
+    <t>rs-observation-pulse-rate</t>
+  </si>
+  <si>
+    <t>RS Observation - Pulse Rate</t>
   </si>
   <si>
     <t>null#78564009</t>
   </si>
   <si>
-    <t>rs-observation-pulse-rate</t>
-  </si>
-  <si>
-    <t>RS Observation - Pulse Rate</t>
-  </si>
-  <si>
-    <t>rs-observation-pulse-rhythm</t>
-  </si>
-  <si>
-    <t>RS Observation - Pulse Rhythm</t>
-  </si>
-  <si>
-    <t>null#364095004</t>
+    <t>SNOMED CT#364095004</t>
+  </si>
+  <si>
+    <t>SNOMED CT#78564009</t>
   </si>
   <si>
     <t>rs-observation-pupils</t>
@@ -590,13 +542,10 @@
     <t>null#86290005</t>
   </si>
   <si>
-    <t>rs-observation-respiratory-rhythm</t>
-  </si>
-  <si>
-    <t>RS Observation - Respiratory Rhythm</t>
-  </si>
-  <si>
-    <t>null#248582003</t>
+    <t>SNOMED CT#248582003</t>
+  </si>
+  <si>
+    <t>SNOMED CT#52653008</t>
   </si>
   <si>
     <t>rs-observation-runreport-comments</t>
@@ -623,88 +572,7 @@
     <t>RS Observation - Status on Arrival</t>
   </si>
   <si>
-    <t>null#status-on-arrival</t>
-  </si>
-  <si>
-    <t>rs-observation-status-on-arrival-alive</t>
-  </si>
-  <si>
-    <t>RS Observation - If Alive: Conscious/Unconscious</t>
-  </si>
-  <si>
-    <t>null#status-on-arrival-alive</t>
-  </si>
-  <si>
-    <t>rs-observation-time-departed</t>
-  </si>
-  <si>
-    <t>RS Observation - Time Departed Scene</t>
-  </si>
-  <si>
-    <t>null#69475-2</t>
-  </si>
-  <si>
-    <t>rs-observation-time-enroute</t>
-  </si>
-  <si>
-    <t>RS Observation - Time Enroute</t>
-  </si>
-  <si>
-    <t>null#69472-9</t>
-  </si>
-  <si>
-    <t>rs-observation-time-hospital-arrival</t>
-  </si>
-  <si>
-    <t>RS Observation - Time of Hospital Arrival</t>
-  </si>
-  <si>
-    <t>null#405799000</t>
-  </si>
-  <si>
-    <t>rs-observation-time-of-consultation</t>
-  </si>
-  <si>
-    <t>RS Observation - Time of Consultation</t>
-  </si>
-  <si>
-    <t>null#406544004</t>
-  </si>
-  <si>
-    <t>rs-observation-time-of-injury</t>
-  </si>
-  <si>
-    <t>RS Observation - Time of Injury</t>
-  </si>
-  <si>
-    <t>null#263501003</t>
-  </si>
-  <si>
-    <t>rs-observation-time-on-scene</t>
-  </si>
-  <si>
-    <t>RS Observation - Time On Scene</t>
-  </si>
-  <si>
-    <t>null#405798008</t>
-  </si>
-  <si>
-    <t>rs-observation-time-received</t>
-  </si>
-  <si>
-    <t>RS Observation - Time Received</t>
-  </si>
-  <si>
-    <t>null#405796007</t>
-  </si>
-  <si>
-    <t>rs-observation-time-station-arrival</t>
-  </si>
-  <si>
-    <t>RS Observation - Time of Emergency Station Arrival</t>
-  </si>
-  <si>
-    <t>null#11288-8</t>
+    <t>null#118223001</t>
   </si>
   <si>
     <t>rs-observation-traffic-investigator</t>
@@ -749,7 +617,7 @@
     <t>RS Observation - Triage Priority</t>
   </si>
   <si>
-    <t>null#225390008</t>
+    <t>null#273887006</t>
   </si>
   <si>
     <t>rs-observation-urgency</t>
@@ -759,15 +627,6 @@
   </si>
   <si>
     <t>null#260870009</t>
-  </si>
-  <si>
-    <t>rs-observation-vehicle-used</t>
-  </si>
-  <si>
-    <t>RS Observation - Vehicle Used</t>
-  </si>
-  <si>
-    <t>null#36030000</t>
   </si>
 </sst>
 </file>
@@ -901,7 +760,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1105,7 +964,7 @@
         <v>16</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>18</v>
@@ -1140,7 +999,7 @@
         <v>16</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>18</v>
@@ -1154,10 +1013,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>13</v>
@@ -1166,7 +1025,7 @@
         <v>13</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>15</v>
@@ -1175,7 +1034,7 @@
         <v>16</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>18</v>
@@ -1189,10 +1048,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>13</v>
@@ -1201,7 +1060,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>15</v>
@@ -1210,7 +1069,7 @@
         <v>16</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>18</v>
@@ -1245,7 +1104,7 @@
         <v>16</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>18</v>
@@ -1280,7 +1139,7 @@
         <v>16</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>18</v>
@@ -1315,7 +1174,7 @@
         <v>16</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>18</v>
@@ -1350,7 +1209,7 @@
         <v>16</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>18</v>
@@ -1420,7 +1279,7 @@
         <v>16</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>18</v>
@@ -1490,7 +1349,7 @@
         <v>16</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>18</v>
@@ -1525,7 +1384,7 @@
         <v>16</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>18</v>
@@ -1539,20 +1398,20 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="C19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="C19" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E19" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="F19" t="s" s="2">
         <v>15</v>
       </c>
@@ -1560,7 +1419,7 @@
         <v>16</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>18</v>
@@ -1574,20 +1433,20 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="C20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="C20" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E20" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="F20" t="s" s="2">
         <v>15</v>
       </c>
@@ -1595,7 +1454,7 @@
         <v>16</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>18</v>
@@ -1609,19 +1468,19 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="C21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D21" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E21" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>15</v>
@@ -1644,19 +1503,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="C22" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E22" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>15</v>
@@ -1679,19 +1538,19 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="C23" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D23" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E23" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>15</v>
@@ -1714,19 +1573,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="C24" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D24" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E24" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>15</v>
@@ -1749,19 +1608,19 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="C25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D25" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E25" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>15</v>
@@ -1784,19 +1643,19 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="C26" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D26" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E26" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>15</v>
@@ -1819,19 +1678,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="C27" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D27" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E27" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>15</v>
@@ -1854,19 +1713,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="C28" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D28" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E28" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>15</v>
@@ -1889,19 +1748,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="C29" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D29" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E29" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>15</v>
@@ -1924,19 +1783,19 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="C30" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D30" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E30" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>15</v>
@@ -1959,10 +1818,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>13</v>
@@ -1971,16 +1830,16 @@
         <v>13</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>18</v>
@@ -1994,10 +1853,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>13</v>
@@ -2006,16 +1865,16 @@
         <v>13</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>18</v>
@@ -2029,10 +1888,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>13</v>
@@ -2041,16 +1900,16 @@
         <v>13</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>18</v>
@@ -2064,10 +1923,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>13</v>
@@ -2076,16 +1935,16 @@
         <v>13</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>18</v>
@@ -2099,10 +1958,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>13</v>
@@ -2111,7 +1970,7 @@
         <v>13</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>15</v>
@@ -2120,7 +1979,7 @@
         <v>16</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>18</v>
@@ -2134,10 +1993,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>13</v>
@@ -2146,7 +2005,7 @@
         <v>13</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>15</v>
@@ -2155,7 +2014,7 @@
         <v>16</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>18</v>
@@ -2169,10 +2028,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>13</v>
@@ -2181,7 +2040,7 @@
         <v>13</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>15</v>
@@ -2190,7 +2049,7 @@
         <v>16</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>18</v>
@@ -2204,10 +2063,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>13</v>
@@ -2216,16 +2075,16 @@
         <v>13</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>18</v>
@@ -2239,10 +2098,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>13</v>
@@ -2251,7 +2110,7 @@
         <v>13</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>15</v>
@@ -2260,7 +2119,7 @@
         <v>16</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>18</v>
@@ -2274,10 +2133,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>13</v>
@@ -2286,7 +2145,7 @@
         <v>13</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>15</v>
@@ -2309,10 +2168,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>13</v>
@@ -2321,7 +2180,7 @@
         <v>13</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>15</v>
@@ -2330,7 +2189,7 @@
         <v>16</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>18</v>
@@ -2344,10 +2203,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>13</v>
@@ -2356,7 +2215,7 @@
         <v>13</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>15</v>
@@ -2379,10 +2238,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>13</v>
@@ -2391,7 +2250,7 @@
         <v>13</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>15</v>
@@ -2414,10 +2273,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>13</v>
@@ -2426,7 +2285,7 @@
         <v>13</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>15</v>
@@ -2449,10 +2308,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>13</v>
@@ -2461,7 +2320,7 @@
         <v>13</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>15</v>
@@ -2470,7 +2329,7 @@
         <v>16</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>18</v>
@@ -2484,10 +2343,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>13</v>
@@ -2496,7 +2355,7 @@
         <v>13</v>
       </c>
       <c r="E46" t="s" s="2">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>15</v>
@@ -2519,10 +2378,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>13</v>
@@ -2531,7 +2390,7 @@
         <v>13</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>15</v>
@@ -2554,10 +2413,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>13</v>
@@ -2566,7 +2425,7 @@
         <v>13</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>15</v>
@@ -2589,10 +2448,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>13</v>
@@ -2601,7 +2460,7 @@
         <v>13</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>15</v>
@@ -2624,10 +2483,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>13</v>
@@ -2636,7 +2495,7 @@
         <v>13</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>15</v>
@@ -2659,10 +2518,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>13</v>
@@ -2671,7 +2530,7 @@
         <v>13</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>15</v>
@@ -2680,7 +2539,7 @@
         <v>16</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>18</v>
@@ -2694,10 +2553,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>13</v>
@@ -2706,13 +2565,13 @@
         <v>13</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>22</v>
@@ -2729,10 +2588,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>13</v>
@@ -2741,13 +2600,13 @@
         <v>13</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>22</v>
@@ -2764,10 +2623,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>13</v>
@@ -2776,7 +2635,7 @@
         <v>13</v>
       </c>
       <c r="E54" t="s" s="2">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>15</v>
@@ -2785,7 +2644,7 @@
         <v>16</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>18</v>
@@ -2799,10 +2658,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>13</v>
@@ -2811,7 +2670,7 @@
         <v>13</v>
       </c>
       <c r="E55" t="s" s="2">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>15</v>
@@ -2820,7 +2679,7 @@
         <v>16</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>18</v>
@@ -2834,10 +2693,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>13</v>
@@ -2846,7 +2705,7 @@
         <v>13</v>
       </c>
       <c r="E56" t="s" s="2">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>15</v>
@@ -2855,7 +2714,7 @@
         <v>16</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>18</v>
@@ -2869,10 +2728,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>13</v>
@@ -2881,7 +2740,7 @@
         <v>13</v>
       </c>
       <c r="E57" t="s" s="2">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>15</v>
@@ -2890,7 +2749,7 @@
         <v>16</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>18</v>
@@ -2904,10 +2763,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="C58" t="s" s="2">
         <v>13</v>
@@ -2916,16 +2775,16 @@
         <v>13</v>
       </c>
       <c r="E58" t="s" s="2">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>18</v>
@@ -2939,10 +2798,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>189</v>
+        <v>13</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="C59" t="s" s="2">
         <v>13</v>
@@ -2951,16 +2810,16 @@
         <v>13</v>
       </c>
       <c r="E59" t="s" s="2">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>18</v>
@@ -2974,10 +2833,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>13</v>
@@ -2986,7 +2845,7 @@
         <v>13</v>
       </c>
       <c r="E60" t="s" s="2">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>15</v>
@@ -2995,7 +2854,7 @@
         <v>16</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>18</v>
@@ -3009,10 +2868,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>13</v>
@@ -3021,7 +2880,7 @@
         <v>13</v>
       </c>
       <c r="E61" t="s" s="2">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>15</v>
@@ -3030,7 +2889,7 @@
         <v>16</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>18</v>
@@ -3044,10 +2903,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>13</v>
@@ -3056,7 +2915,7 @@
         <v>13</v>
       </c>
       <c r="E62" t="s" s="2">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>15</v>
@@ -3079,10 +2938,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>13</v>
@@ -3091,7 +2950,7 @@
         <v>13</v>
       </c>
       <c r="E63" t="s" s="2">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>15</v>
@@ -3100,7 +2959,7 @@
         <v>16</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>18</v>
@@ -3114,10 +2973,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>13</v>
@@ -3126,7 +2985,7 @@
         <v>13</v>
       </c>
       <c r="E64" t="s" s="2">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>15</v>
@@ -3135,7 +2994,7 @@
         <v>16</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>18</v>
@@ -3149,10 +3008,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>13</v>
@@ -3161,7 +3020,7 @@
         <v>13</v>
       </c>
       <c r="E65" t="s" s="2">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>15</v>
@@ -3170,7 +3029,7 @@
         <v>16</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>18</v>
@@ -3184,10 +3043,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C66" t="s" s="2">
         <v>13</v>
@@ -3196,7 +3055,7 @@
         <v>13</v>
       </c>
       <c r="E66" t="s" s="2">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>15</v>
@@ -3205,7 +3064,7 @@
         <v>16</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>18</v>
@@ -3219,10 +3078,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>13</v>
@@ -3231,7 +3090,7 @@
         <v>13</v>
       </c>
       <c r="E67" t="s" s="2">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>15</v>
@@ -3240,7 +3099,7 @@
         <v>16</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>18</v>
@@ -3254,10 +3113,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>13</v>
@@ -3266,7 +3125,7 @@
         <v>13</v>
       </c>
       <c r="E68" t="s" s="2">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>15</v>
@@ -3275,7 +3134,7 @@
         <v>16</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>18</v>
@@ -3284,391 +3143,6 @@
         <v>13</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D69" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E69" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D70" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E70" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D71" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E71" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D72" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E72" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D73" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E73" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D74" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E74" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D75" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E75" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D76" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E76" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D77" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E77" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D78" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E78" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="C79" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D79" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E79" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K79" t="s" s="2">
         <v>13</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="202">
   <si>
     <t>Profile</t>
   </si>
@@ -341,25 +341,16 @@
     <t>SNOMED CT#281396004</t>
   </si>
   <si>
-    <t>rs-observation-how-many-patients</t>
-  </si>
-  <si>
-    <t>RS Observation - How Many Patients Involved</t>
-  </si>
-  <si>
-    <t>null#how-many-patients</t>
+    <t>rs-observation-how-many-vehicles</t>
+  </si>
+  <si>
+    <t>RS Observation - How Many Vehicles Involved</t>
+  </si>
+  <si>
+    <t>null#how-many-vehicles</t>
   </si>
   <si>
     <t>integer</t>
-  </si>
-  <si>
-    <t>rs-observation-how-many-vehicles</t>
-  </si>
-  <si>
-    <t>RS Observation - How Many Vehicles Involved</t>
-  </si>
-  <si>
-    <t>null#how-many-vehicles</t>
   </si>
   <si>
     <t>rs-observation-injury-datetime</t>
@@ -760,7 +751,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2014,7 +2005,7 @@
         <v>16</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>18</v>
@@ -2028,10 +2019,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>13</v>
@@ -2040,16 +2031,16 @@
         <v>13</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>18</v>
@@ -2063,10 +2054,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>13</v>
@@ -2075,16 +2066,16 @@
         <v>13</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>18</v>
@@ -2154,7 +2145,7 @@
         <v>16</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>18</v>
@@ -2171,16 +2162,16 @@
         <v>130</v>
       </c>
       <c r="B41" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D41" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E41" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>15</v>
@@ -2203,10 +2194,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="B42" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>65</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>13</v>
@@ -2294,7 +2285,7 @@
         <v>16</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>18</v>
@@ -2504,7 +2495,7 @@
         <v>16</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>18</v>
@@ -2518,28 +2509,28 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="B51" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D51" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E51" t="s" s="2">
-        <v>161</v>
-      </c>
       <c r="F51" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>18</v>
@@ -2556,16 +2547,16 @@
         <v>13</v>
       </c>
       <c r="B52" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D52" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D52" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E52" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>13</v>
@@ -2588,10 +2579,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>13</v>
@@ -2603,10 +2594,10 @@
         <v>163</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>22</v>
@@ -2644,7 +2635,7 @@
         <v>16</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>18</v>
@@ -2679,7 +2670,7 @@
         <v>16</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>18</v>
@@ -2714,7 +2705,7 @@
         <v>16</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>18</v>
@@ -2728,28 +2719,28 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E57" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="B57" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D57" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E57" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="F57" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>18</v>
@@ -2766,16 +2757,16 @@
         <v>13</v>
       </c>
       <c r="B58" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D58" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E58" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D58" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E58" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>13</v>
@@ -2798,10 +2789,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C59" t="s" s="2">
         <v>13</v>
@@ -2813,13 +2804,13 @@
         <v>177</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>18</v>
@@ -2854,7 +2845,7 @@
         <v>16</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>18</v>
@@ -2924,7 +2915,7 @@
         <v>16</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>18</v>
@@ -3099,7 +3090,7 @@
         <v>16</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>18</v>
@@ -3108,41 +3099,6 @@
         <v>13</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D68" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E68" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K68" t="s" s="2">
         <v>13</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="201">
   <si>
     <t>Profile</t>
   </si>
@@ -347,7 +347,7 @@
     <t>RS Observation - How Many Vehicles Involved</t>
   </si>
   <si>
-    <t>null#how-many-vehicles</t>
+    <t>null#PATIENTVEHICLE</t>
   </si>
   <si>
     <t>integer</t>
@@ -459,9 +459,6 @@
   </si>
   <si>
     <t>RS Observation - Patient's Vehicle</t>
-  </si>
-  <si>
-    <t>null#PATIENTVEHICLE</t>
   </si>
   <si>
     <t>rs-observation-place-of-occurrence</t>
@@ -2381,7 +2378,7 @@
         <v>13</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>15</v>
@@ -2404,19 +2401,19 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="B48" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="C48" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D48" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E48" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>15</v>
@@ -2439,19 +2436,19 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B49" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="C49" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D49" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E49" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>15</v>
@@ -2474,19 +2471,19 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="C50" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D50" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E50" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>15</v>
@@ -2512,7 +2509,7 @@
         <v>13</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>13</v>
@@ -2521,7 +2518,7 @@
         <v>13</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>13</v>
@@ -2547,7 +2544,7 @@
         <v>13</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>13</v>
@@ -2556,7 +2553,7 @@
         <v>13</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>13</v>
@@ -2579,19 +2576,19 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B53" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="C53" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D53" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D53" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E53" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>15</v>
@@ -2614,19 +2611,19 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="B54" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="C54" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D54" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E54" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>15</v>
@@ -2649,19 +2646,19 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="B55" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="C55" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D55" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E55" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>15</v>
@@ -2684,19 +2681,19 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="B56" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="C56" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E56" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D56" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E56" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>15</v>
@@ -2722,7 +2719,7 @@
         <v>13</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>13</v>
@@ -2731,7 +2728,7 @@
         <v>13</v>
       </c>
       <c r="E57" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>13</v>
@@ -2757,7 +2754,7 @@
         <v>13</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C58" t="s" s="2">
         <v>13</v>
@@ -2766,7 +2763,7 @@
         <v>13</v>
       </c>
       <c r="E58" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>13</v>
@@ -2789,19 +2786,19 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="B59" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="C59" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D59" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E59" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D59" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E59" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>15</v>
@@ -2824,19 +2821,19 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="B60" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="C60" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E60" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D60" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E60" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>15</v>
@@ -2859,19 +2856,19 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="B61" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="C61" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D61" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E61" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>15</v>
@@ -2894,19 +2891,19 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="B62" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="C62" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E62" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D62" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E62" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>15</v>
@@ -2929,19 +2926,19 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="B63" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="C63" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E63" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D63" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E63" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>15</v>
@@ -2964,19 +2961,19 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="B64" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="B64" t="s" s="2">
+      <c r="C64" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E64" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D64" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E64" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>15</v>
@@ -2999,19 +2996,19 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="B65" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="C65" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D65" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E65" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D65" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E65" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>15</v>
@@ -3034,19 +3031,19 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="C66" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D66" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E66" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D66" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E66" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>15</v>
@@ -3069,19 +3066,19 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B67" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="B67" t="s" s="2">
+      <c r="C67" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D67" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E67" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D67" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E67" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>15</v>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="219">
   <si>
     <t>Profile</t>
   </si>
@@ -359,7 +359,7 @@
     <t>RS Observation - Date/Time of Injury</t>
   </si>
   <si>
-    <t>null#439771001</t>
+    <t>SNOMED CT#439771001</t>
   </si>
   <si>
     <t>dateTime</t>
@@ -452,7 +452,7 @@
     <t>RS Observation - Outcome at Release</t>
   </si>
   <si>
-    <t>null#418138009</t>
+    <t>SNOMED CT#418138009</t>
   </si>
   <si>
     <t>rs-observation-patients-vehicle</t>
@@ -560,7 +560,61 @@
     <t>RS Observation - Status on Arrival</t>
   </si>
   <si>
-    <t>null#118223001</t>
+    <t>SNOMED CT#118223001</t>
+  </si>
+  <si>
+    <t>rs-observation-timeline-date-received</t>
+  </si>
+  <si>
+    <t>RS Observation - Timeline Date Received</t>
+  </si>
+  <si>
+    <t>LOINC#30976-5</t>
+  </si>
+  <si>
+    <t>rs-observation-timeline-time-departed</t>
+  </si>
+  <si>
+    <t>RS Observation - Timeline Time Departed</t>
+  </si>
+  <si>
+    <t>LOINC#69475-2</t>
+  </si>
+  <si>
+    <t>rs-observation-timeline-time-enroute</t>
+  </si>
+  <si>
+    <t>RS Observation - Timeline Time Enroute</t>
+  </si>
+  <si>
+    <t>SNOMED CT#405796007</t>
+  </si>
+  <si>
+    <t>rs-observation-timeline-time-hospital-arrival</t>
+  </si>
+  <si>
+    <t>RS Observation - Timeline Time Hospital Arrival</t>
+  </si>
+  <si>
+    <t>SNOMED CT#405799000</t>
+  </si>
+  <si>
+    <t>rs-observation-timeline-time-on-scene</t>
+  </si>
+  <si>
+    <t>RS Observation - Timeline Time On Scene</t>
+  </si>
+  <si>
+    <t>SNOMED CT#405798008</t>
+  </si>
+  <si>
+    <t>rs-observation-timeline-time-station-arrival</t>
+  </si>
+  <si>
+    <t>RS Observation - Timeline Time Station Arrival</t>
+  </si>
+  <si>
+    <t>LOINC#11288-8</t>
   </si>
   <si>
     <t>rs-observation-traffic-investigator</t>
@@ -748,7 +802,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1996,7 +2050,7 @@
         <v>115</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>16</v>
@@ -2346,7 +2400,7 @@
         <v>146</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>16</v>
@@ -2871,7 +2925,7 @@
         <v>182</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>16</v>
@@ -2906,13 +2960,13 @@
         <v>185</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>18</v>
@@ -2941,13 +2995,13 @@
         <v>188</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>18</v>
@@ -2976,13 +3030,13 @@
         <v>191</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>18</v>
@@ -3011,13 +3065,13 @@
         <v>194</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>18</v>
@@ -3046,13 +3100,13 @@
         <v>197</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>18</v>
@@ -3081,21 +3135,231 @@
         <v>200</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H67" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E68" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D69" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E69" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E70" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D71" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E71" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D72" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E72" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D73" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E73" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H73" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="I67" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K67" t="s" s="2">
+      <c r="I73" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>13</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="223">
   <si>
     <t>Profile</t>
   </si>
@@ -104,13 +104,28 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>rs-observation-blood-pressure</t>
+  </si>
+  <si>
+    <t>RS Observation - Blood Pressure</t>
+  </si>
+  <si>
+    <t>LOINC#85354-9</t>
+  </si>
+  <si>
+    <t>SNOMED CT#271649006</t>
+  </si>
+  <si>
+    <t>SNOMED CT#271650006</t>
+  </si>
+  <si>
     <t>rs-observation-body-temperature</t>
   </si>
   <si>
     <t>RS Observation - Body Temperature</t>
   </si>
   <si>
-    <t>null#386725007</t>
+    <t>SNOMED CT#386725007</t>
   </si>
   <si>
     <t>rs-observation-call-source</t>
@@ -329,7 +344,7 @@
     <t>RS Observation - Glasgow Coma Scale</t>
   </si>
   <si>
-    <t>null#248241002</t>
+    <t>SNOMED CT#248241002</t>
   </si>
   <si>
     <t>SNOMED CT#281395000</t>
@@ -392,7 +407,7 @@
     <t>RS Observation - Mode of Transport to Facility</t>
   </si>
   <si>
-    <t>null#74286-6</t>
+    <t>LOINC#74286-6</t>
   </si>
   <si>
     <t>rs-observation-multiple-injuries</t>
@@ -485,15 +500,12 @@
     <t>RS Observation - Pulse Rate</t>
   </si>
   <si>
-    <t>null#78564009</t>
+    <t>SNOMED CT#78564009</t>
   </si>
   <si>
     <t>SNOMED CT#364095004</t>
   </si>
   <si>
-    <t>SNOMED CT#78564009</t>
-  </si>
-  <si>
     <t>rs-observation-pupils</t>
   </si>
   <si>
@@ -527,7 +539,7 @@
     <t>RS Observation - Respiratory Rate</t>
   </si>
   <si>
-    <t>null#86290005</t>
+    <t>SNOMED CT#86290005</t>
   </si>
   <si>
     <t>SNOMED CT#248582003</t>
@@ -641,7 +653,7 @@
     <t>RS Observation - Transport/Vehicular Accident</t>
   </si>
   <si>
-    <t>null#274215009</t>
+    <t>SNOMED CT#274215009</t>
   </si>
   <si>
     <t>rs-observation-traumatic-amputation</t>
@@ -802,7 +814,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1000,13 +1012,13 @@
         <v>32</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>18</v>
@@ -1020,28 +1032,28 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>35</v>
-      </c>
       <c r="F7" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>18</v>
@@ -1055,10 +1067,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>13</v>
@@ -1067,16 +1079,16 @@
         <v>13</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>18</v>
@@ -1090,10 +1102,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>13</v>
@@ -1102,16 +1114,16 @@
         <v>13</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>18</v>
@@ -1125,10 +1137,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>13</v>
@@ -1137,7 +1149,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>15</v>
@@ -1146,7 +1158,7 @@
         <v>16</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>18</v>
@@ -1160,10 +1172,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>13</v>
@@ -1172,7 +1184,7 @@
         <v>13</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>15</v>
@@ -1181,7 +1193,7 @@
         <v>16</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>18</v>
@@ -1195,10 +1207,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>13</v>
@@ -1207,7 +1219,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>15</v>
@@ -1230,10 +1242,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>13</v>
@@ -1242,7 +1254,7 @@
         <v>13</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>15</v>
@@ -1251,7 +1263,7 @@
         <v>16</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>18</v>
@@ -1265,10 +1277,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>13</v>
@@ -1277,7 +1289,7 @@
         <v>13</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>15</v>
@@ -1286,7 +1298,7 @@
         <v>16</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>18</v>
@@ -1300,10 +1312,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>13</v>
@@ -1312,7 +1324,7 @@
         <v>13</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>15</v>
@@ -1321,7 +1333,7 @@
         <v>16</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>18</v>
@@ -1335,10 +1347,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>13</v>
@@ -1347,7 +1359,7 @@
         <v>13</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>15</v>
@@ -1370,10 +1382,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>13</v>
@@ -1382,7 +1394,7 @@
         <v>13</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>15</v>
@@ -1405,10 +1417,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>13</v>
@@ -1417,7 +1429,7 @@
         <v>13</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>15</v>
@@ -1426,7 +1438,7 @@
         <v>16</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>18</v>
@@ -1440,10 +1452,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>13</v>
@@ -1452,7 +1464,7 @@
         <v>13</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>15</v>
@@ -1475,10 +1487,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>13</v>
@@ -1487,7 +1499,7 @@
         <v>13</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>15</v>
@@ -1510,10 +1522,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>13</v>
@@ -1522,7 +1534,7 @@
         <v>13</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>15</v>
@@ -1545,10 +1557,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>13</v>
@@ -1557,7 +1569,7 @@
         <v>13</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>15</v>
@@ -1580,10 +1592,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>13</v>
@@ -1592,7 +1604,7 @@
         <v>13</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>15</v>
@@ -1615,10 +1627,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>13</v>
@@ -1627,7 +1639,7 @@
         <v>13</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>15</v>
@@ -1650,10 +1662,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>13</v>
@@ -1662,7 +1674,7 @@
         <v>13</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>15</v>
@@ -1685,10 +1697,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>13</v>
@@ -1697,7 +1709,7 @@
         <v>13</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>15</v>
@@ -1720,10 +1732,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>13</v>
@@ -1732,7 +1744,7 @@
         <v>13</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>15</v>
@@ -1755,10 +1767,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>13</v>
@@ -1767,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>15</v>
@@ -1790,10 +1802,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>13</v>
@@ -1802,7 +1814,7 @@
         <v>13</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>15</v>
@@ -1825,10 +1837,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>13</v>
@@ -1837,7 +1849,7 @@
         <v>13</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>15</v>
@@ -1860,28 +1872,28 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="B31" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="C31" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D31" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E31" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="F31" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>18</v>
@@ -1895,10 +1907,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>13</v>
@@ -1910,13 +1922,13 @@
         <v>107</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>18</v>
@@ -1930,10 +1942,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>13</v>
@@ -1942,16 +1954,16 @@
         <v>13</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>18</v>
@@ -1968,7 +1980,7 @@
         <v>13</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>13</v>
@@ -1977,7 +1989,7 @@
         <v>13</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>13</v>
@@ -1986,7 +1998,7 @@
         <v>13</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>18</v>
@@ -2000,11 +2012,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="B35" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="C35" t="s" s="2">
         <v>13</v>
       </c>
@@ -2012,16 +2024,16 @@
         <v>13</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>18</v>
@@ -2035,28 +2047,28 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="B36" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D36" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E36" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="F36" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>18</v>
@@ -2070,28 +2082,28 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H37" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D37" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E37" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="F37" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>17</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>18</v>
@@ -2105,28 +2117,28 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H38" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D38" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E38" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="F38" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>22</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>18</v>
@@ -2140,28 +2152,28 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="F39" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D39" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E39" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="F39" t="s" s="2">
-        <v>15</v>
-      </c>
       <c r="G39" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>18</v>
@@ -2175,20 +2187,20 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="B40" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="C40" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="C40" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D40" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E40" t="s" s="2">
-        <v>129</v>
-      </c>
       <c r="F40" t="s" s="2">
         <v>15</v>
       </c>
@@ -2196,7 +2208,7 @@
         <v>16</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>18</v>
@@ -2210,10 +2222,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="B41" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>65</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>13</v>
@@ -2225,13 +2237,13 @@
         <v>131</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>18</v>
@@ -2283,16 +2295,16 @@
         <v>135</v>
       </c>
       <c r="B43" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D43" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E43" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>15</v>
@@ -2315,20 +2327,20 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B44" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="C44" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="C44" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D44" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E44" t="s" s="2">
-        <v>140</v>
-      </c>
       <c r="F44" t="s" s="2">
         <v>15</v>
       </c>
@@ -2336,7 +2348,7 @@
         <v>16</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>18</v>
@@ -2350,20 +2362,20 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B45" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="C45" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D45" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E45" t="s" s="2">
-        <v>143</v>
-      </c>
       <c r="F45" t="s" s="2">
         <v>15</v>
       </c>
@@ -2371,7 +2383,7 @@
         <v>16</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>18</v>
@@ -2385,22 +2397,22 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B46" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="C46" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="C46" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D46" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E46" t="s" s="2">
-        <v>146</v>
-      </c>
       <c r="F46" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>16</v>
@@ -2420,19 +2432,19 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="B47" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="C47" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D47" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E47" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>15</v>
@@ -2470,7 +2482,7 @@
         <v>151</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>16</v>
@@ -2502,7 +2514,7 @@
         <v>13</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>15</v>
@@ -2525,20 +2537,20 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="C50" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="C50" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D50" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E50" t="s" s="2">
-        <v>157</v>
-      </c>
       <c r="F50" t="s" s="2">
         <v>15</v>
       </c>
@@ -2546,7 +2558,7 @@
         <v>16</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>18</v>
@@ -2560,10 +2572,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>13</v>
@@ -2572,13 +2584,13 @@
         <v>13</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>22</v>
@@ -2595,10 +2607,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>13</v>
@@ -2607,16 +2619,16 @@
         <v>13</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>18</v>
@@ -2630,7 +2642,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>161</v>
@@ -2642,13 +2654,13 @@
         <v>13</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>22</v>
@@ -2665,10 +2677,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>13</v>
@@ -2677,16 +2689,16 @@
         <v>13</v>
       </c>
       <c r="E54" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>18</v>
@@ -2700,20 +2712,20 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="B55" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D55" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E55" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="F55" t="s" s="2">
         <v>15</v>
       </c>
@@ -2721,7 +2733,7 @@
         <v>16</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>18</v>
@@ -2735,20 +2747,20 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E56" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="B56" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D56" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E56" t="s" s="2">
-        <v>171</v>
-      </c>
       <c r="F56" t="s" s="2">
         <v>15</v>
       </c>
@@ -2756,7 +2768,7 @@
         <v>16</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>18</v>
@@ -2770,10 +2782,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>13</v>
@@ -2785,13 +2797,13 @@
         <v>172</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>18</v>
@@ -2805,10 +2817,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C58" t="s" s="2">
         <v>13</v>
@@ -2817,16 +2829,16 @@
         <v>13</v>
       </c>
       <c r="E58" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>18</v>
@@ -2840,10 +2852,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B59" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="C59" t="s" s="2">
         <v>13</v>
@@ -2855,13 +2867,13 @@
         <v>176</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>18</v>
@@ -2875,25 +2887,25 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E60" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="B60" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D60" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E60" t="s" s="2">
-        <v>179</v>
-      </c>
       <c r="F60" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>22</v>
@@ -2910,28 +2922,28 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="B61" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D61" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E61" t="s" s="2">
-        <v>182</v>
-      </c>
       <c r="F61" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>18</v>
@@ -2945,28 +2957,28 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E62" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="B62" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D62" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E62" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="F62" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>18</v>
@@ -2980,20 +2992,20 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E63" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="B63" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D63" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E63" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="F63" t="s" s="2">
         <v>13</v>
       </c>
@@ -3001,7 +3013,7 @@
         <v>16</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>18</v>
@@ -3015,20 +3027,20 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E64" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="B64" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D64" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E64" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="F64" t="s" s="2">
         <v>13</v>
       </c>
@@ -3036,7 +3048,7 @@
         <v>16</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>18</v>
@@ -3050,20 +3062,20 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D65" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E65" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="B65" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D65" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E65" t="s" s="2">
-        <v>194</v>
-      </c>
       <c r="F65" t="s" s="2">
         <v>13</v>
       </c>
@@ -3071,7 +3083,7 @@
         <v>16</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>18</v>
@@ -3085,20 +3097,20 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D66" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E66" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="B66" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D66" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E66" t="s" s="2">
-        <v>197</v>
-      </c>
       <c r="F66" t="s" s="2">
         <v>13</v>
       </c>
@@ -3106,7 +3118,7 @@
         <v>16</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>18</v>
@@ -3120,20 +3132,20 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D67" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E67" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="B67" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D67" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E67" t="s" s="2">
-        <v>200</v>
-      </c>
       <c r="F67" t="s" s="2">
         <v>13</v>
       </c>
@@ -3141,7 +3153,7 @@
         <v>16</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>18</v>
@@ -3155,28 +3167,28 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E68" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="B68" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D68" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E68" t="s" s="2">
-        <v>203</v>
-      </c>
       <c r="F68" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>18</v>
@@ -3190,28 +3202,28 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D69" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E69" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="B69" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D69" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E69" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="F69" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>18</v>
@@ -3225,19 +3237,19 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E70" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D70" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E70" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>15</v>
@@ -3260,19 +3272,19 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D71" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E71" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D71" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E71" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>15</v>
@@ -3295,22 +3307,22 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D72" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E72" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="B72" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D72" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E72" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="F72" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>16</v>
@@ -3330,36 +3342,106 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D73" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E73" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="B73" t="s" s="2">
+      <c r="F73" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="C73" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D73" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E73" t="s" s="2">
+      <c r="B74" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="F73" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H73" t="s" s="2">
+      <c r="C74" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D74" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E74" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D75" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E75" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H75" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="I73" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K73" t="s" s="2">
+      <c r="I75" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>13</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="224">
   <si>
     <t>Profile</t>
   </si>
@@ -422,7 +422,10 @@
     <t>rs-observation-nature-burns</t>
   </si>
   <si>
-    <t>null#125666000</t>
+    <t>SNOMED CT#125666000</t>
+  </si>
+  <si>
+    <t>SNOMED CT#48333001</t>
   </si>
   <si>
     <t>rs-observation-open-wound</t>
@@ -814,7 +817,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2307,7 +2310,7 @@
         <v>136</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>16</v>
@@ -2327,25 +2330,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="B44" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D44" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E44" t="s" s="2">
-        <v>139</v>
-      </c>
       <c r="F44" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>17</v>
@@ -2362,19 +2365,19 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D45" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E45" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>15</v>
@@ -2397,20 +2400,20 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="B46" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D46" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E46" t="s" s="2">
-        <v>145</v>
-      </c>
       <c r="F46" t="s" s="2">
         <v>15</v>
       </c>
@@ -2418,7 +2421,7 @@
         <v>16</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>18</v>
@@ -2432,19 +2435,19 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D47" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E47" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>15</v>
@@ -2467,22 +2470,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="B48" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D48" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E48" t="s" s="2">
-        <v>151</v>
-      </c>
       <c r="F48" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>16</v>
@@ -2502,22 +2505,22 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="B49" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D49" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E49" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="F49" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>16</v>
@@ -2537,11 +2540,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="B50" t="s" s="2">
-        <v>155</v>
-      </c>
       <c r="C50" t="s" s="2">
         <v>13</v>
       </c>
@@ -2549,7 +2552,7 @@
         <v>13</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>15</v>
@@ -2572,19 +2575,19 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D51" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E51" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>15</v>
@@ -2607,28 +2610,28 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D52" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="B52" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D52" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E52" t="s" s="2">
-        <v>162</v>
-      </c>
       <c r="F52" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>18</v>
@@ -2642,10 +2645,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>13</v>
@@ -2660,10 +2663,10 @@
         <v>13</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>18</v>
@@ -2680,7 +2683,7 @@
         <v>13</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>13</v>
@@ -2689,7 +2692,7 @@
         <v>13</v>
       </c>
       <c r="E54" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>13</v>
@@ -2712,10 +2715,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>13</v>
@@ -2724,13 +2727,13 @@
         <v>13</v>
       </c>
       <c r="E55" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>22</v>
@@ -2747,20 +2750,20 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E56" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="B56" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D56" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E56" t="s" s="2">
-        <v>169</v>
-      </c>
       <c r="F56" t="s" s="2">
         <v>15</v>
       </c>
@@ -2768,7 +2771,7 @@
         <v>16</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>18</v>
@@ -2782,20 +2785,20 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E57" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="B57" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D57" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E57" t="s" s="2">
-        <v>172</v>
-      </c>
       <c r="F57" t="s" s="2">
         <v>15</v>
       </c>
@@ -2803,7 +2806,7 @@
         <v>16</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>18</v>
@@ -2817,28 +2820,28 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D58" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E58" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="B58" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D58" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E58" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="F58" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>18</v>
@@ -2852,10 +2855,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>13</v>
+        <v>174</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C59" t="s" s="2">
         <v>13</v>
@@ -2870,10 +2873,10 @@
         <v>13</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>18</v>
@@ -2890,7 +2893,7 @@
         <v>13</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>13</v>
@@ -2922,28 +2925,28 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="B61" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D61" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E61" t="s" s="2">
-        <v>180</v>
-      </c>
       <c r="F61" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>18</v>
@@ -2957,20 +2960,20 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E62" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="B62" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D62" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E62" t="s" s="2">
-        <v>183</v>
-      </c>
       <c r="F62" t="s" s="2">
         <v>15</v>
       </c>
@@ -2978,7 +2981,7 @@
         <v>16</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>18</v>
@@ -2992,22 +2995,22 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E63" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="B63" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D63" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E63" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="F63" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>16</v>
@@ -3027,20 +3030,20 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E64" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="B64" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D64" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E64" t="s" s="2">
-        <v>189</v>
-      </c>
       <c r="F64" t="s" s="2">
         <v>13</v>
       </c>
@@ -3048,7 +3051,7 @@
         <v>16</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>18</v>
@@ -3062,19 +3065,19 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D65" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E65" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D65" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E65" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>13</v>
@@ -3097,19 +3100,19 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D66" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E66" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D66" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E66" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>13</v>
@@ -3132,19 +3135,19 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D67" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E67" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D67" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E67" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>13</v>
@@ -3167,19 +3170,19 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E68" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D68" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E68" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>13</v>
@@ -3202,19 +3205,19 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D69" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E69" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D69" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E69" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>13</v>
@@ -3237,28 +3240,28 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E70" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="B70" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D70" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E70" t="s" s="2">
-        <v>207</v>
-      </c>
       <c r="F70" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>18</v>
@@ -3272,19 +3275,19 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D71" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E71" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D71" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E71" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>15</v>
@@ -3307,22 +3310,22 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D72" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E72" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="B72" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D72" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E72" t="s" s="2">
-        <v>213</v>
-      </c>
       <c r="F72" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>16</v>
@@ -3342,22 +3345,22 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D73" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E73" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="B73" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D73" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E73" t="s" s="2">
-        <v>216</v>
-      </c>
       <c r="F73" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>16</v>
@@ -3377,19 +3380,19 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D74" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E74" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D74" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E74" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>15</v>
@@ -3412,36 +3415,71 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D75" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E75" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="B75" t="s" s="2">
+      <c r="F75" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="C75" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D75" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E75" t="s" s="2">
+      <c r="B76" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="F75" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H75" t="s" s="2">
+      <c r="C76" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D76" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E76" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H76" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="I75" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K75" t="s" s="2">
+      <c r="I76" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>13</v>
       </c>
     </row>
